--- a/CoordenadasAccidentes.xlsx
+++ b/CoordenadasAccidentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BeatrizGarcia/Documents/GitHub/TesisDoctoral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A85D808-EFD7-204C-88DB-C677F268852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC5FAC-DD59-F04D-841B-688AF0EB9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="3420" windowWidth="17560" windowHeight="14720" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
+    <workbookView xWindow="16460" yWindow="3120" windowWidth="17560" windowHeight="14720" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo1 (00-08)" sheetId="1" r:id="rId1"/>
@@ -3468,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B416306-B906-45CD-81F6-4F4CCAAB3EE1}">
   <dimension ref="B2:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8188,8 +8188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
   <dimension ref="B2:E903"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C890" sqref="C890"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CoordenadasAccidentes.xlsx
+++ b/CoordenadasAccidentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BeatrizGarcia/Documents/GitHub/TesisDoctoral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC5FAC-DD59-F04D-841B-688AF0EB9AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245298F-ADF3-9947-A01F-84FB7AE2822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="3120" windowWidth="17560" windowHeight="14720" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
+    <workbookView xWindow="16460" yWindow="3120" windowWidth="10000" windowHeight="14720" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo1 (00-08)" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Periodo1 (00-08)'!$B$2:$E$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Periodo2 (08-16)'!$B$2:$E$903</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Periodo3 (16-24)'!$B$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1024">
   <si>
     <t>25.6727925, -100.352228</t>
   </si>
@@ -3148,10 +3150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3469,7 +3472,7 @@
   <dimension ref="B2:H271"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8186,16 +8189,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
-  <dimension ref="B2:E903"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:E965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8213,7 +8217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>44562</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>44562</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>44562</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>44562</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>44562</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>44562</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>44562</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>44562</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>44562</v>
       </c>
@@ -8339,7 +8343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>44562</v>
       </c>
@@ -8353,7 +8357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>44562</v>
       </c>
@@ -8367,7 +8371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>44562</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>44562</v>
       </c>
@@ -8395,7 +8399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>44562</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>44562</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>44562</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>44562</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>44563</v>
       </c>
@@ -8465,7 +8469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>44563</v>
       </c>
@@ -8479,7 +8483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>44563</v>
       </c>
@@ -8493,7 +8497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>44563</v>
       </c>
@@ -8507,7 +8511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>44563</v>
       </c>
@@ -8521,7 +8525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>44563</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>44564</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>44564</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>44564</v>
       </c>
@@ -8577,7 +8581,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>44564</v>
       </c>
@@ -8591,7 +8595,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>44564</v>
       </c>
@@ -8605,7 +8609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>44564</v>
       </c>
@@ -8619,7 +8623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>44564</v>
       </c>
@@ -8633,7 +8637,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>44564</v>
       </c>
@@ -8647,7 +8651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>44564</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>44564</v>
       </c>
@@ -8675,7 +8679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>44564</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>44564</v>
       </c>
@@ -8703,7 +8707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>44564</v>
       </c>
@@ -8717,7 +8721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>44564</v>
       </c>
@@ -8731,7 +8735,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>44564</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>44564</v>
       </c>
@@ -8759,7 +8763,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>44564</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>44564</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>44564</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>44564</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>44564</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>44564</v>
       </c>
@@ -8843,7 +8847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>44564</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>44564</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>44564</v>
       </c>
@@ -8885,7 +8889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>44564</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>44564</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>44564</v>
       </c>
@@ -8927,7 +8931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>44564</v>
       </c>
@@ -8941,7 +8945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>44565</v>
       </c>
@@ -8955,7 +8959,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>44565</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>44565</v>
       </c>
@@ -8983,7 +8987,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>44565</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>44565</v>
       </c>
@@ -9011,7 +9015,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>44565</v>
       </c>
@@ -9025,7 +9029,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>44565</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>44565</v>
       </c>
@@ -9067,7 +9071,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>44565</v>
       </c>
@@ -9081,7 +9085,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>44565</v>
       </c>
@@ -9095,7 +9099,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>44565</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>44565</v>
       </c>
@@ -9123,7 +9127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>44565</v>
       </c>
@@ -9137,7 +9141,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>44565</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>44565</v>
       </c>
@@ -9165,7 +9169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>44565</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>44565</v>
       </c>
@@ -9193,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>44565</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>44565</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>44565</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>44565</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>44565</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>44565</v>
       </c>
@@ -9277,7 +9281,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>44565</v>
       </c>
@@ -9291,7 +9295,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>44565</v>
       </c>
@@ -9305,7 +9309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>44565</v>
       </c>
@@ -9319,7 +9323,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>44565</v>
       </c>
@@ -9333,7 +9337,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>44565</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>44565</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>44565</v>
       </c>
@@ -9375,7 +9379,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>44565</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>44565</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>44565</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>44565</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>44565</v>
       </c>
@@ -9445,7 +9449,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>44565</v>
       </c>
@@ -9459,7 +9463,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>44565</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>44565</v>
       </c>
@@ -9487,7 +9491,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>44565</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>44565</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>44565</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>44566</v>
       </c>
@@ -9543,7 +9547,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>44566</v>
       </c>
@@ -9557,7 +9561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>44566</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>44566</v>
       </c>
@@ -9585,7 +9589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>44566</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>44566</v>
       </c>
@@ -9613,7 +9617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>44566</v>
       </c>
@@ -9627,7 +9631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>44566</v>
       </c>
@@ -9641,7 +9645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>44566</v>
       </c>
@@ -9655,7 +9659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>44566</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>44566</v>
       </c>
@@ -9683,7 +9687,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>44566</v>
       </c>
@@ -9697,7 +9701,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>44566</v>
       </c>
@@ -9711,7 +9715,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>44566</v>
       </c>
@@ -9725,7 +9729,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>44566</v>
       </c>
@@ -9739,7 +9743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>44566</v>
       </c>
@@ -9753,7 +9757,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>44566</v>
       </c>
@@ -9767,7 +9771,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>44566</v>
       </c>
@@ -9781,7 +9785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>44566</v>
       </c>
@@ -9795,7 +9799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>44566</v>
       </c>
@@ -9809,7 +9813,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>44566</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>44566</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>44566</v>
       </c>
@@ -9865,7 +9869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>44566</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <v>44566</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>44566</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>44566</v>
       </c>
@@ -9921,7 +9925,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>44566</v>
       </c>
@@ -9935,7 +9939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>44566</v>
       </c>
@@ -9949,7 +9953,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>44566</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>44566</v>
       </c>
@@ -9977,7 +9981,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>44566</v>
       </c>
@@ -9991,7 +9995,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>44566</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>44566</v>
       </c>
@@ -10019,7 +10023,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <v>44566</v>
       </c>
@@ -10033,7 +10037,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <v>44566</v>
       </c>
@@ -10047,7 +10051,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <v>44566</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <v>44566</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
         <v>44566</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
         <v>44566</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
         <v>44566</v>
       </c>
@@ -10117,7 +10121,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <v>44566</v>
       </c>
@@ -10131,7 +10135,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
         <v>44566</v>
       </c>
@@ -10145,7 +10149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
         <v>44566</v>
       </c>
@@ -10159,7 +10163,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
         <v>44566</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
         <v>44566</v>
       </c>
@@ -10187,7 +10191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <v>44566</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
         <v>44567</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <v>44567</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <v>44567</v>
       </c>
@@ -10243,7 +10247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <v>44567</v>
       </c>
@@ -10257,7 +10261,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <v>44567</v>
       </c>
@@ -10271,7 +10275,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <v>44567</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
         <v>44567</v>
       </c>
@@ -10299,7 +10303,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
         <v>44567</v>
       </c>
@@ -10313,7 +10317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
         <v>44567</v>
       </c>
@@ -10327,7 +10331,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <v>44567</v>
       </c>
@@ -10341,7 +10345,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <v>44567</v>
       </c>
@@ -10355,7 +10359,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <v>44567</v>
       </c>
@@ -10369,7 +10373,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <v>44567</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <v>44567</v>
       </c>
@@ -10397,7 +10401,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <v>44567</v>
       </c>
@@ -10411,7 +10415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
         <v>44567</v>
       </c>
@@ -10425,7 +10429,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <v>44567</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <v>44567</v>
       </c>
@@ -10453,7 +10457,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <v>44567</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <v>44567</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <v>44567</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <v>44567</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <v>44567</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <v>44567</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <v>44567</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
         <v>44567</v>
       </c>
@@ -10565,7 +10569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
         <v>44567</v>
       </c>
@@ -10579,7 +10583,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
         <v>44567</v>
       </c>
@@ -10593,7 +10597,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="1">
         <v>44568</v>
       </c>
@@ -10607,7 +10611,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
         <v>44568</v>
       </c>
@@ -10621,7 +10625,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="1">
         <v>44568</v>
       </c>
@@ -10635,7 +10639,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="1">
         <v>44568</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
         <v>44568</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
         <v>44568</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <v>44568</v>
       </c>
@@ -10691,7 +10695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
         <v>44568</v>
       </c>
@@ -10705,7 +10709,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
         <v>44568</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="1">
         <v>44568</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>44568</v>
       </c>
@@ -10761,7 +10765,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="1">
         <v>44568</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
         <v>44568</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
         <v>44568</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
         <v>44568</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
         <v>44568</v>
       </c>
@@ -10831,7 +10835,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="1">
         <v>44568</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
         <v>44568</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="1">
         <v>44568</v>
       </c>
@@ -10873,7 +10877,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="1">
         <v>44568</v>
       </c>
@@ -10887,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
         <v>44568</v>
       </c>
@@ -10901,7 +10905,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="1">
         <v>44568</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="1">
         <v>44568</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="1">
         <v>44568</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
         <v>44568</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
         <v>44568</v>
       </c>
@@ -10971,7 +10975,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="1">
         <v>44568</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="1">
         <v>44568</v>
       </c>
@@ -10999,7 +11003,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="1">
         <v>44569</v>
       </c>
@@ -11013,7 +11017,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
         <v>44569</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
         <v>44569</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
         <v>44569</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
         <v>44569</v>
       </c>
@@ -11069,7 +11073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
         <v>44569</v>
       </c>
@@ -11083,7 +11087,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
         <v>44569</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="1">
         <v>44569</v>
       </c>
@@ -11111,7 +11115,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="1">
         <v>44569</v>
       </c>
@@ -11125,7 +11129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="1">
         <v>44569</v>
       </c>
@@ -11139,7 +11143,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="1">
         <v>44569</v>
       </c>
@@ -11153,7 +11157,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="1">
         <v>44569</v>
       </c>
@@ -11167,7 +11171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="1">
         <v>44569</v>
       </c>
@@ -11181,7 +11185,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="1">
         <v>44569</v>
       </c>
@@ -11195,7 +11199,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="1">
         <v>44569</v>
       </c>
@@ -11209,7 +11213,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="1">
         <v>44569</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="1">
         <v>44569</v>
       </c>
@@ -11237,7 +11241,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="1">
         <v>44569</v>
       </c>
@@ -11251,7 +11255,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="1">
         <v>44569</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="1">
         <v>44569</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="1">
         <v>44569</v>
       </c>
@@ -11293,7 +11297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="1">
         <v>44569</v>
       </c>
@@ -11307,7 +11311,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
         <v>44569</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="1">
         <v>44569</v>
       </c>
@@ -11335,7 +11339,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
         <v>44569</v>
       </c>
@@ -11349,7 +11353,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="1">
         <v>44570</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="1">
         <v>44570</v>
       </c>
@@ -11377,7 +11381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="1">
         <v>44570</v>
       </c>
@@ -11391,7 +11395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="1">
         <v>44570</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="1">
         <v>44570</v>
       </c>
@@ -11419,7 +11423,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
         <v>44570</v>
       </c>
@@ -11433,7 +11437,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="1">
         <v>44570</v>
       </c>
@@ -11447,7 +11451,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="1">
         <v>44570</v>
       </c>
@@ -11461,7 +11465,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="1">
         <v>44570</v>
       </c>
@@ -11475,7 +11479,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="1">
         <v>44570</v>
       </c>
@@ -11489,7 +11493,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="1">
         <v>44571</v>
       </c>
@@ -11503,7 +11507,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="1">
         <v>44571</v>
       </c>
@@ -11517,7 +11521,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="1">
         <v>44571</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="1">
         <v>44571</v>
       </c>
@@ -11545,7 +11549,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="1">
         <v>44571</v>
       </c>
@@ -11559,7 +11563,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" s="1">
         <v>44571</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" s="1">
         <v>44571</v>
       </c>
@@ -11587,7 +11591,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="1">
         <v>44571</v>
       </c>
@@ -11601,7 +11605,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="1">
         <v>44571</v>
       </c>
@@ -11615,7 +11619,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" s="1">
         <v>44571</v>
       </c>
@@ -11629,7 +11633,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" s="1">
         <v>44571</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" s="1">
         <v>44571</v>
       </c>
@@ -11657,7 +11661,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" s="1">
         <v>44571</v>
       </c>
@@ -11671,7 +11675,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" s="1">
         <v>44571</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="1">
         <v>44571</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="1">
         <v>44571</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="1">
         <v>44571</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="1">
         <v>44571</v>
       </c>
@@ -11741,7 +11745,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" s="1">
         <v>44571</v>
       </c>
@@ -11755,7 +11759,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B256" s="1">
         <v>44571</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B258" s="1">
         <v>44571</v>
       </c>
@@ -11797,7 +11801,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B259" s="1">
         <v>44571</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B260" s="1">
         <v>44571</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B261" s="1">
         <v>44571</v>
       </c>
@@ -11839,7 +11843,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B262" s="1">
         <v>44571</v>
       </c>
@@ -11853,7 +11857,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B263" s="1">
         <v>44571</v>
       </c>
@@ -11867,7 +11871,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B264" s="1">
         <v>44571</v>
       </c>
@@ -11881,7 +11885,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B265" s="1">
         <v>44571</v>
       </c>
@@ -11895,7 +11899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B266" s="1">
         <v>44571</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B268" s="1">
         <v>44572</v>
       </c>
@@ -11937,7 +11941,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B269" s="1">
         <v>44572</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B270" s="1">
         <v>44572</v>
       </c>
@@ -11965,7 +11969,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B271" s="1">
         <v>44572</v>
       </c>
@@ -11979,7 +11983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B272" s="1">
         <v>44572</v>
       </c>
@@ -11993,7 +11997,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B273" s="1">
         <v>44572</v>
       </c>
@@ -12007,7 +12011,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B274" s="1">
         <v>44572</v>
       </c>
@@ -12021,7 +12025,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B275" s="1">
         <v>44572</v>
       </c>
@@ -12035,7 +12039,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B276" s="1">
         <v>44572</v>
       </c>
@@ -12049,7 +12053,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="1">
         <v>44572</v>
       </c>
@@ -12063,7 +12067,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="1">
         <v>44572</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B279" s="1">
         <v>44572</v>
       </c>
@@ -12091,7 +12095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B280" s="1">
         <v>44572</v>
       </c>
@@ -12105,7 +12109,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B281" s="1">
         <v>44572</v>
       </c>
@@ -12119,7 +12123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B282" s="1">
         <v>44572</v>
       </c>
@@ -12133,7 +12137,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B283" s="1">
         <v>44572</v>
       </c>
@@ -12147,7 +12151,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B284" s="1">
         <v>44572</v>
       </c>
@@ -12161,7 +12165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B285" s="1">
         <v>44572</v>
       </c>
@@ -12175,7 +12179,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B286" s="1">
         <v>44572</v>
       </c>
@@ -12189,7 +12193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B287" s="1">
         <v>44572</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B288" s="1">
         <v>44572</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B289" s="1">
         <v>44572</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B290" s="1">
         <v>44572</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B291" s="1">
         <v>44572</v>
       </c>
@@ -12259,7 +12263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B292" s="1">
         <v>44572</v>
       </c>
@@ -12273,7 +12277,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B293" s="1">
         <v>44572</v>
       </c>
@@ -12287,7 +12291,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B294" s="1">
         <v>44572</v>
       </c>
@@ -12301,7 +12305,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B295" s="1">
         <v>44573</v>
       </c>
@@ -12315,7 +12319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B296" s="1">
         <v>44573</v>
       </c>
@@ -12329,7 +12333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B297" s="1">
         <v>44573</v>
       </c>
@@ -12343,7 +12347,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B298" s="1">
         <v>44573</v>
       </c>
@@ -12357,7 +12361,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B299" s="1">
         <v>44573</v>
       </c>
@@ -12371,7 +12375,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B300" s="1">
         <v>44573</v>
       </c>
@@ -12385,7 +12389,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B301" s="1">
         <v>44573</v>
       </c>
@@ -12399,7 +12403,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B302" s="1">
         <v>44573</v>
       </c>
@@ -12413,7 +12417,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B303" s="1">
         <v>44573</v>
       </c>
@@ -12427,7 +12431,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B304" s="1">
         <v>44573</v>
       </c>
@@ -12441,7 +12445,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B305" s="1">
         <v>44573</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B306" s="1">
         <v>44573</v>
       </c>
@@ -12469,7 +12473,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B307" s="1">
         <v>44573</v>
       </c>
@@ -12483,7 +12487,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B308" s="1">
         <v>44573</v>
       </c>
@@ -12497,7 +12501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B309" s="1">
         <v>44573</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B310" s="1">
         <v>44573</v>
       </c>
@@ -12525,7 +12529,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B311" s="1">
         <v>44573</v>
       </c>
@@ -12539,7 +12543,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B312" s="1">
         <v>44573</v>
       </c>
@@ -12553,7 +12557,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B313" s="1">
         <v>44573</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B314" s="1">
         <v>44573</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B315" s="1">
         <v>44573</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B316" s="1">
         <v>44573</v>
       </c>
@@ -12609,7 +12613,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B317" s="1">
         <v>44573</v>
       </c>
@@ -12623,7 +12627,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B318" s="1">
         <v>44573</v>
       </c>
@@ -12637,7 +12641,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B319" s="1">
         <v>44574</v>
       </c>
@@ -12651,7 +12655,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B320" s="1">
         <v>44574</v>
       </c>
@@ -12665,7 +12669,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B321" s="1">
         <v>44574</v>
       </c>
@@ -12679,7 +12683,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B322" s="1">
         <v>44574</v>
       </c>
@@ -12693,7 +12697,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B323" s="1">
         <v>44574</v>
       </c>
@@ -12707,7 +12711,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B324" s="1">
         <v>44574</v>
       </c>
@@ -12721,7 +12725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B325" s="1">
         <v>44574</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B326" s="1">
         <v>44574</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B327" s="1">
         <v>44574</v>
       </c>
@@ -12763,7 +12767,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B328" s="1">
         <v>44574</v>
       </c>
@@ -12777,7 +12781,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B329" s="1">
         <v>44574</v>
       </c>
@@ -12791,7 +12795,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B330" s="1">
         <v>44574</v>
       </c>
@@ -12805,7 +12809,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B331" s="1">
         <v>44574</v>
       </c>
@@ -12819,7 +12823,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B332" s="1">
         <v>44574</v>
       </c>
@@ -12833,7 +12837,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B333" s="1">
         <v>44574</v>
       </c>
@@ -12847,7 +12851,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B334" s="1">
         <v>44574</v>
       </c>
@@ -12861,7 +12865,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B335" s="1">
         <v>44574</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B336" s="1">
         <v>44574</v>
       </c>
@@ -12889,7 +12893,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B337" s="1">
         <v>44574</v>
       </c>
@@ -12903,7 +12907,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B338" s="1">
         <v>44574</v>
       </c>
@@ -12917,7 +12921,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B339" s="1">
         <v>44574</v>
       </c>
@@ -12931,7 +12935,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B340" s="1">
         <v>44574</v>
       </c>
@@ -12945,7 +12949,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B341" s="1">
         <v>44574</v>
       </c>
@@ -12959,7 +12963,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B342" s="1">
         <v>44574</v>
       </c>
@@ -12973,7 +12977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B343" s="1">
         <v>44574</v>
       </c>
@@ -12987,7 +12991,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B344" s="1">
         <v>44574</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B345" s="1">
         <v>44574</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B346" s="1">
         <v>44574</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B347" s="1">
         <v>44574</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B348" s="1">
         <v>44574</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B349" s="1">
         <v>44574</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B350" s="1">
         <v>44574</v>
       </c>
@@ -13085,7 +13089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B351" s="1">
         <v>44574</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B352" s="1">
         <v>44574</v>
       </c>
@@ -13113,7 +13117,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B353" s="1">
         <v>44574</v>
       </c>
@@ -13127,7 +13131,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1">
         <v>44574</v>
       </c>
@@ -13141,7 +13145,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B355" s="1">
         <v>44574</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B356" s="1">
         <v>44574</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B357" s="1">
         <v>44575</v>
       </c>
@@ -13183,7 +13187,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B358" s="1">
         <v>44575</v>
       </c>
@@ -13197,7 +13201,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B359" s="1">
         <v>44575</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B360" s="1">
         <v>44575</v>
       </c>
@@ -13225,7 +13229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B361" s="1">
         <v>44575</v>
       </c>
@@ -13239,7 +13243,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B362" s="1">
         <v>44575</v>
       </c>
@@ -13253,7 +13257,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B363" s="1">
         <v>44575</v>
       </c>
@@ -13281,7 +13285,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B365" s="1">
         <v>44575</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B366" s="1">
         <v>44575</v>
       </c>
@@ -13309,7 +13313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B367" s="1">
         <v>44575</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B368" s="1">
         <v>44575</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B369" s="1">
         <v>44575</v>
       </c>
@@ -13351,7 +13355,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B370" s="1">
         <v>44575</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B371" s="1">
         <v>44575</v>
       </c>
@@ -13379,7 +13383,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B372" s="1">
         <v>44575</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B373" s="1">
         <v>44575</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B374" s="1">
         <v>44575</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B375" s="1">
         <v>44575</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B376" s="1">
         <v>44575</v>
       </c>
@@ -13449,7 +13453,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B377" s="1">
         <v>44575</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B378" s="1">
         <v>44575</v>
       </c>
@@ -13477,7 +13481,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B379" s="1">
         <v>44575</v>
       </c>
@@ -13491,7 +13495,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B380" s="1">
         <v>44575</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1">
         <v>44575</v>
       </c>
@@ -13519,7 +13523,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B382" s="1">
         <v>44575</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B383" s="1">
         <v>44575</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B384" s="1">
         <v>44575</v>
       </c>
@@ -13561,7 +13565,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B385" s="1">
         <v>44575</v>
       </c>
@@ -13575,7 +13579,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B386" s="1">
         <v>44575</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B387" s="1">
         <v>44575</v>
       </c>
@@ -13603,7 +13607,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B388" s="1">
         <v>44575</v>
       </c>
@@ -13617,7 +13621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B389" s="1">
         <v>44575</v>
       </c>
@@ -13631,7 +13635,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B390" s="1">
         <v>44575</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B391" s="1">
         <v>44575</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B392" s="1">
         <v>44575</v>
       </c>
@@ -13673,7 +13677,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B393" s="1">
         <v>44575</v>
       </c>
@@ -13687,7 +13691,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B394" s="1">
         <v>44575</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B395" s="1">
         <v>44575</v>
       </c>
@@ -13715,7 +13719,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B396" s="1">
         <v>44575</v>
       </c>
@@ -13729,7 +13733,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B397" s="1">
         <v>44575</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B398" s="1">
         <v>44575</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B399" s="1">
         <v>44577</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B400" s="1">
         <v>44577</v>
       </c>
@@ -13799,7 +13803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B402" s="1">
         <v>44577</v>
       </c>
@@ -13813,7 +13817,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B403" s="1">
         <v>44577</v>
       </c>
@@ -13827,7 +13831,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B404" s="1">
         <v>44577</v>
       </c>
@@ -13841,7 +13845,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B405" s="1">
         <v>44577</v>
       </c>
@@ -13855,7 +13859,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B406" s="1">
         <v>44577</v>
       </c>
@@ -13869,7 +13873,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B407" s="1">
         <v>44577</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B408" s="1">
         <v>44577</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B409" s="1">
         <v>44577</v>
       </c>
@@ -13911,7 +13915,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B410" s="1">
         <v>44577</v>
       </c>
@@ -13925,7 +13929,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B411" s="1">
         <v>44577</v>
       </c>
@@ -13939,7 +13943,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B412" s="1">
         <v>44577</v>
       </c>
@@ -13953,7 +13957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B413" s="1">
         <v>44577</v>
       </c>
@@ -13967,7 +13971,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B414" s="1">
         <v>44577</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B415" s="1">
         <v>44577</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B416" s="1">
         <v>44577</v>
       </c>
@@ -14009,7 +14013,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B417" s="1">
         <v>44578</v>
       </c>
@@ -14023,7 +14027,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B418" s="1">
         <v>44578</v>
       </c>
@@ -14037,7 +14041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B419" s="1">
         <v>44578</v>
       </c>
@@ -14051,7 +14055,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B420" s="1">
         <v>44578</v>
       </c>
@@ -14065,7 +14069,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B421" s="1">
         <v>44578</v>
       </c>
@@ -14079,7 +14083,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B422" s="1">
         <v>44578</v>
       </c>
@@ -14093,7 +14097,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" s="1">
         <v>44578</v>
       </c>
@@ -14107,7 +14111,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B424" s="1">
         <v>44578</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B425" s="1">
         <v>44578</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B426" s="1">
         <v>44578</v>
       </c>
@@ -14149,7 +14153,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B427" s="1">
         <v>44578</v>
       </c>
@@ -14163,7 +14167,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B428" s="1">
         <v>44578</v>
       </c>
@@ -14177,7 +14181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B429" s="1">
         <v>44578</v>
       </c>
@@ -14191,7 +14195,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B430" s="1">
         <v>44578</v>
       </c>
@@ -14205,7 +14209,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B431" s="1">
         <v>44578</v>
       </c>
@@ -14219,7 +14223,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B432" s="1">
         <v>44578</v>
       </c>
@@ -14233,7 +14237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B433" s="1">
         <v>44578</v>
       </c>
@@ -14247,7 +14251,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B434" s="1">
         <v>44578</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B435" s="1">
         <v>44578</v>
       </c>
@@ -14275,7 +14279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B436" s="1">
         <v>44578</v>
       </c>
@@ -14289,7 +14293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B437" s="1">
         <v>44578</v>
       </c>
@@ -14303,7 +14307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B438" s="1">
         <v>44578</v>
       </c>
@@ -14317,7 +14321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B439" s="1">
         <v>44578</v>
       </c>
@@ -14331,7 +14335,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B440" s="1">
         <v>44578</v>
       </c>
@@ -14345,7 +14349,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" s="1">
         <v>44578</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B442" s="1">
         <v>44578</v>
       </c>
@@ -14373,7 +14377,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B443" s="1">
         <v>44578</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B444" s="1">
         <v>44578</v>
       </c>
@@ -14401,7 +14405,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B445" s="1">
         <v>44578</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B446" s="1">
         <v>44578</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B447" s="1">
         <v>44578</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B448" s="1">
         <v>44578</v>
       </c>
@@ -14457,7 +14461,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B449" s="1">
         <v>44578</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B450" s="1">
         <v>44578</v>
       </c>
@@ -14485,7 +14489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B451" s="1">
         <v>44578</v>
       </c>
@@ -14499,7 +14503,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B452" s="1">
         <v>44579</v>
       </c>
@@ -14513,7 +14517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B453" s="1">
         <v>44579</v>
       </c>
@@ -14527,7 +14531,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B454" s="1">
         <v>44579</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B455" s="1">
         <v>44579</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B456" s="1">
         <v>44579</v>
       </c>
@@ -14569,7 +14573,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B457" s="1">
         <v>44579</v>
       </c>
@@ -14583,7 +14587,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B458" s="1">
         <v>44579</v>
       </c>
@@ -14597,7 +14601,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B459" s="1">
         <v>44579</v>
       </c>
@@ -14625,7 +14629,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B461" s="1">
         <v>44579</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B463" s="1">
         <v>44579</v>
       </c>
@@ -14667,7 +14671,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B464" s="1">
         <v>44579</v>
       </c>
@@ -14681,7 +14685,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B465" s="1">
         <v>44579</v>
       </c>
@@ -14695,7 +14699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B466" s="1">
         <v>44579</v>
       </c>
@@ -14709,7 +14713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B467" s="1">
         <v>44579</v>
       </c>
@@ -14723,7 +14727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B468" s="1">
         <v>44579</v>
       </c>
@@ -14737,7 +14741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B469" s="1">
         <v>44579</v>
       </c>
@@ -14765,7 +14769,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B471" s="1">
         <v>44579</v>
       </c>
@@ -14779,7 +14783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B472" s="1">
         <v>44579</v>
       </c>
@@ -14793,7 +14797,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B473" s="1">
         <v>44579</v>
       </c>
@@ -14807,7 +14811,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B474" s="1">
         <v>44579</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B475" s="1">
         <v>44579</v>
       </c>
@@ -14835,7 +14839,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B476" s="1">
         <v>44579</v>
       </c>
@@ -14849,7 +14853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B477" s="1">
         <v>44579</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B478" s="1">
         <v>44579</v>
       </c>
@@ -14877,7 +14881,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B479" s="1">
         <v>44579</v>
       </c>
@@ -14891,7 +14895,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B480" s="1">
         <v>44579</v>
       </c>
@@ -14905,7 +14909,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B481" s="1">
         <v>44579</v>
       </c>
@@ -14919,7 +14923,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B482" s="1">
         <v>44579</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B483" s="1">
         <v>44579</v>
       </c>
@@ -14947,7 +14951,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B484" s="1">
         <v>44579</v>
       </c>
@@ -14961,7 +14965,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B485" s="1">
         <v>44580</v>
       </c>
@@ -14975,7 +14979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B486" s="1">
         <v>44580</v>
       </c>
@@ -14989,7 +14993,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B487" s="1">
         <v>44580</v>
       </c>
@@ -15003,7 +15007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B488" s="1">
         <v>44580</v>
       </c>
@@ -15017,7 +15021,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B489" s="1">
         <v>44580</v>
       </c>
@@ -15031,7 +15035,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B490" s="1">
         <v>44580</v>
       </c>
@@ -15045,7 +15049,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B491" s="1">
         <v>44580</v>
       </c>
@@ -15059,7 +15063,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B492" s="1">
         <v>44580</v>
       </c>
@@ -15073,7 +15077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B493" s="1">
         <v>44580</v>
       </c>
@@ -15087,7 +15091,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B494" s="1">
         <v>44580</v>
       </c>
@@ -15101,7 +15105,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B495" s="1">
         <v>44580</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B496" s="1">
         <v>44580</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B497" s="1">
         <v>44580</v>
       </c>
@@ -15143,7 +15147,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B498" s="1">
         <v>44580</v>
       </c>
@@ -15157,7 +15161,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B499" s="1">
         <v>44580</v>
       </c>
@@ -15171,7 +15175,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B500" s="1">
         <v>44580</v>
       </c>
@@ -15185,7 +15189,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="501" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B501" s="1">
         <v>44580</v>
       </c>
@@ -15199,7 +15203,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B502" s="1">
         <v>44580</v>
       </c>
@@ -15213,7 +15217,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B503" s="1">
         <v>44580</v>
       </c>
@@ -15227,7 +15231,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B504" s="1">
         <v>44580</v>
       </c>
@@ -15241,7 +15245,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="505" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B505" s="1">
         <v>44580</v>
       </c>
@@ -15255,7 +15259,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B506" s="1">
         <v>44580</v>
       </c>
@@ -15269,7 +15273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="507" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B507" s="1">
         <v>44580</v>
       </c>
@@ -15283,7 +15287,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B508" s="1">
         <v>44580</v>
       </c>
@@ -15297,7 +15301,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="509" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B509" s="1">
         <v>44580</v>
       </c>
@@ -15311,7 +15315,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="510" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B510" s="1">
         <v>44580</v>
       </c>
@@ -15325,7 +15329,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="511" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B511" s="1">
         <v>44580</v>
       </c>
@@ -15339,7 +15343,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="512" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B512" s="1">
         <v>44580</v>
       </c>
@@ -15353,7 +15357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="513" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B513" s="1">
         <v>44580</v>
       </c>
@@ -15367,7 +15371,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B514" s="1">
         <v>44580</v>
       </c>
@@ -15381,7 +15385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="515" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B515" s="1">
         <v>44580</v>
       </c>
@@ -15395,7 +15399,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="516" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B516" s="1">
         <v>44580</v>
       </c>
@@ -15409,7 +15413,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="517" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B517" s="1">
         <v>44580</v>
       </c>
@@ -15423,7 +15427,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="518" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B518" s="1">
         <v>44580</v>
       </c>
@@ -15437,7 +15441,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="519" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B519" s="1">
         <v>44580</v>
       </c>
@@ -15451,7 +15455,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="520" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B520" s="1">
         <v>44581</v>
       </c>
@@ -15465,7 +15469,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="521" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B521" s="1">
         <v>44581</v>
       </c>
@@ -15479,7 +15483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B522" s="1">
         <v>44581</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="523" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B523" s="1">
         <v>44581</v>
       </c>
@@ -15507,7 +15511,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="524" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B524" s="1">
         <v>44581</v>
       </c>
@@ -15521,7 +15525,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="525" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B525" s="1">
         <v>44581</v>
       </c>
@@ -15535,7 +15539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="526" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B526" s="1">
         <v>44581</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="527" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B527" s="1">
         <v>44581</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="528" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B528" s="1">
         <v>44581</v>
       </c>
@@ -15577,7 +15581,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="529" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B529" s="1">
         <v>44581</v>
       </c>
@@ -15591,7 +15595,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="530" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B530" s="1">
         <v>44581</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="531" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B531" s="1">
         <v>44581</v>
       </c>
@@ -15619,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B532" s="1">
         <v>44581</v>
       </c>
@@ -15633,7 +15637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B533" s="1">
         <v>44581</v>
       </c>
@@ -15647,7 +15651,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="534" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B534" s="1">
         <v>44581</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="535" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B535" s="1">
         <v>44581</v>
       </c>
@@ -15675,7 +15679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="536" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B536" s="1">
         <v>44581</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="537" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B537" s="1">
         <v>44581</v>
       </c>
@@ -15703,7 +15707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="538" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B538" s="1">
         <v>44581</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="539" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B539" s="1">
         <v>44581</v>
       </c>
@@ -15731,7 +15735,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="540" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B540" s="1">
         <v>44581</v>
       </c>
@@ -15745,7 +15749,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="541" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B541" s="1">
         <v>44581</v>
       </c>
@@ -15759,7 +15763,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="542" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B542" s="1">
         <v>44581</v>
       </c>
@@ -15773,7 +15777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B543" s="1">
         <v>44581</v>
       </c>
@@ -15787,7 +15791,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="544" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B544" s="1">
         <v>44581</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="545" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B545" s="1">
         <v>44581</v>
       </c>
@@ -15815,7 +15819,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="546" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B546" s="1">
         <v>44581</v>
       </c>
@@ -15829,7 +15833,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="547" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B547" s="1">
         <v>44581</v>
       </c>
@@ -15843,7 +15847,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="548" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B548" s="1">
         <v>44581</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="549" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B549" s="1">
         <v>44581</v>
       </c>
@@ -15871,7 +15875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B550" s="1">
         <v>44581</v>
       </c>
@@ -15885,7 +15889,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="551" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B551" s="1">
         <v>44581</v>
       </c>
@@ -15899,7 +15903,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="552" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B552" s="1">
         <v>44581</v>
       </c>
@@ -15927,7 +15931,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="554" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B554" s="1">
         <v>44581</v>
       </c>
@@ -15941,7 +15945,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="555" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B555" s="1">
         <v>44581</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="556" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B556" s="1">
         <v>44582</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="557" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B557" s="1">
         <v>44582</v>
       </c>
@@ -15983,7 +15987,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="558" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B558" s="1">
         <v>44582</v>
       </c>
@@ -15997,7 +16001,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="559" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B559" s="1">
         <v>44582</v>
       </c>
@@ -16011,7 +16015,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="560" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B560" s="1">
         <v>44582</v>
       </c>
@@ -16025,7 +16029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="561" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B561" s="1">
         <v>44582</v>
       </c>
@@ -16039,7 +16043,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="562" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B562" s="1">
         <v>44582</v>
       </c>
@@ -16053,7 +16057,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="563" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B563" s="1">
         <v>44582</v>
       </c>
@@ -16067,7 +16071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="564" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B564" s="1">
         <v>44582</v>
       </c>
@@ -16081,7 +16085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="565" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B565" s="1">
         <v>44582</v>
       </c>
@@ -16095,7 +16099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="566" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B566" s="1">
         <v>44582</v>
       </c>
@@ -16109,7 +16113,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="567" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B567" s="1">
         <v>44582</v>
       </c>
@@ -16123,7 +16127,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="568" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B568" s="1">
         <v>44582</v>
       </c>
@@ -16137,7 +16141,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="569" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B569" s="1">
         <v>44582</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="570" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B570" s="1">
         <v>44582</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="571" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B571" s="1">
         <v>44582</v>
       </c>
@@ -16179,7 +16183,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="572" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B572" s="1">
         <v>44582</v>
       </c>
@@ -16193,7 +16197,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="573" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B573" s="1">
         <v>44582</v>
       </c>
@@ -16207,7 +16211,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="574" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B574" s="1">
         <v>44582</v>
       </c>
@@ -16221,7 +16225,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="575" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B575" s="1">
         <v>44582</v>
       </c>
@@ -16235,7 +16239,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="576" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B576" s="1">
         <v>44582</v>
       </c>
@@ -16249,7 +16253,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="577" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B577" s="1">
         <v>44582</v>
       </c>
@@ -16263,7 +16267,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="578" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B578" s="1">
         <v>44582</v>
       </c>
@@ -16277,7 +16281,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="579" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B579" s="1">
         <v>44582</v>
       </c>
@@ -16291,7 +16295,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="580" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B580" s="1">
         <v>44582</v>
       </c>
@@ -16305,7 +16309,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="581" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B581" s="1">
         <v>44582</v>
       </c>
@@ -16319,7 +16323,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="582" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B582" s="1">
         <v>44582</v>
       </c>
@@ -16333,7 +16337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B583" s="1">
         <v>44582</v>
       </c>
@@ -16347,7 +16351,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="584" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B584" s="1">
         <v>44582</v>
       </c>
@@ -16361,7 +16365,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="585" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B585" s="1">
         <v>44582</v>
       </c>
@@ -16375,7 +16379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="586" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B586" s="1">
         <v>44582</v>
       </c>
@@ -16389,7 +16393,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="587" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B587" s="1">
         <v>44583</v>
       </c>
@@ -16403,7 +16407,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="588" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B588" s="1">
         <v>44583</v>
       </c>
@@ -16417,7 +16421,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="589" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B589" s="1">
         <v>44583</v>
       </c>
@@ -16431,7 +16435,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="590" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B590" s="1">
         <v>44583</v>
       </c>
@@ -16445,7 +16449,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="591" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B591" s="1">
         <v>44583</v>
       </c>
@@ -16459,7 +16463,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="592" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B592" s="1">
         <v>44583</v>
       </c>
@@ -16473,7 +16477,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="593" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B593" s="1">
         <v>44583</v>
       </c>
@@ -16487,7 +16491,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="594" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B594" s="1">
         <v>44583</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="595" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B595" s="1">
         <v>44583</v>
       </c>
@@ -16515,7 +16519,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="596" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B596" s="1">
         <v>44583</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="597" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B597" s="1">
         <v>44583</v>
       </c>
@@ -16543,7 +16547,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="598" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B598" s="1">
         <v>44583</v>
       </c>
@@ -16557,7 +16561,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="599" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B599" s="1">
         <v>44583</v>
       </c>
@@ -16571,7 +16575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="600" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B600" s="1">
         <v>44583</v>
       </c>
@@ -16585,7 +16589,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="601" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B601" s="1">
         <v>44583</v>
       </c>
@@ -16599,7 +16603,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="602" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B602" s="1">
         <v>44583</v>
       </c>
@@ -16613,7 +16617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B603" s="1">
         <v>44583</v>
       </c>
@@ -16627,7 +16631,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="604" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B604" s="1">
         <v>44583</v>
       </c>
@@ -16641,7 +16645,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="605" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B605" s="1">
         <v>44583</v>
       </c>
@@ -16655,7 +16659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="606" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B606" s="1">
         <v>44583</v>
       </c>
@@ -16669,7 +16673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="607" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B607" s="1">
         <v>44583</v>
       </c>
@@ -16683,7 +16687,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="608" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B608" s="1">
         <v>44583</v>
       </c>
@@ -16697,7 +16701,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="609" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B609" s="1">
         <v>44583</v>
       </c>
@@ -16711,7 +16715,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="610" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B610" s="1">
         <v>44583</v>
       </c>
@@ -16725,7 +16729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="611" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B611" s="1">
         <v>44583</v>
       </c>
@@ -16739,7 +16743,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="612" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B612" s="1">
         <v>44583</v>
       </c>
@@ -16753,7 +16757,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="613" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B613" s="1">
         <v>44583</v>
       </c>
@@ -16767,7 +16771,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="614" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B614" s="1">
         <v>44583</v>
       </c>
@@ -16781,7 +16785,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="615" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B615" s="1">
         <v>44583</v>
       </c>
@@ -16795,7 +16799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B616" s="1">
         <v>44583</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="617" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B617" s="1">
         <v>44583</v>
       </c>
@@ -16823,7 +16827,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="618" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B618" s="1">
         <v>44584</v>
       </c>
@@ -16837,7 +16841,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="619" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B619" s="1">
         <v>44584</v>
       </c>
@@ -16851,7 +16855,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="620" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B620" s="1">
         <v>44584</v>
       </c>
@@ -16865,7 +16869,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="621" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B621" s="1">
         <v>44584</v>
       </c>
@@ -16879,7 +16883,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="622" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B622" s="1">
         <v>44584</v>
       </c>
@@ -16893,7 +16897,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="623" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B623" s="1">
         <v>44584</v>
       </c>
@@ -16907,7 +16911,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="624" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B624" s="1">
         <v>44584</v>
       </c>
@@ -16921,7 +16925,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="625" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B625" s="1">
         <v>44584</v>
       </c>
@@ -16935,7 +16939,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="626" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B626" s="1">
         <v>44584</v>
       </c>
@@ -16949,7 +16953,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="627" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B627" s="1">
         <v>44584</v>
       </c>
@@ -16963,7 +16967,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="628" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B628" s="1">
         <v>44584</v>
       </c>
@@ -16977,7 +16981,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="629" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B629" s="1">
         <v>44584</v>
       </c>
@@ -16991,7 +16995,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="630" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B630" s="1">
         <v>44584</v>
       </c>
@@ -17005,7 +17009,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="631" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B631" s="1">
         <v>44584</v>
       </c>
@@ -17019,7 +17023,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="632" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B632" s="1">
         <v>44584</v>
       </c>
@@ -17033,7 +17037,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="633" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B633" s="1">
         <v>44584</v>
       </c>
@@ -17047,7 +17051,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="634" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B634" s="1">
         <v>44584</v>
       </c>
@@ -17061,7 +17065,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="635" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B635" s="1">
         <v>44584</v>
       </c>
@@ -17075,7 +17079,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="636" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B636" s="1">
         <v>44584</v>
       </c>
@@ -17089,7 +17093,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="637" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B637" s="1">
         <v>44584</v>
       </c>
@@ -17103,7 +17107,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="638" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B638" s="1">
         <v>44584</v>
       </c>
@@ -17117,7 +17121,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="639" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B639" s="1">
         <v>44584</v>
       </c>
@@ -17131,7 +17135,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="640" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B640" s="1">
         <v>44584</v>
       </c>
@@ -17145,7 +17149,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="641" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B641" s="1">
         <v>44584</v>
       </c>
@@ -17159,7 +17163,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="642" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B642" s="1">
         <v>44584</v>
       </c>
@@ -17173,7 +17177,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="643" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B643" s="1">
         <v>44584</v>
       </c>
@@ -17187,7 +17191,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="644" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B644" s="1">
         <v>44584</v>
       </c>
@@ -17201,7 +17205,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="645" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B645" s="1">
         <v>44584</v>
       </c>
@@ -17215,7 +17219,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="646" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B646" s="1">
         <v>44585</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="647" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B647" s="1">
         <v>44585</v>
       </c>
@@ -17243,7 +17247,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="648" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B648" s="1">
         <v>44585</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="649" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B649" s="1">
         <v>44585</v>
       </c>
@@ -17271,7 +17275,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="650" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B650" s="1">
         <v>44585</v>
       </c>
@@ -17285,7 +17289,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="651" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B651" s="1">
         <v>44585</v>
       </c>
@@ -17299,7 +17303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="652" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B652" s="1">
         <v>44585</v>
       </c>
@@ -17313,7 +17317,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="653" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B653" s="1">
         <v>44585</v>
       </c>
@@ -17327,7 +17331,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="654" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B654" s="1">
         <v>44585</v>
       </c>
@@ -17341,7 +17345,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="655" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B655" s="1">
         <v>44585</v>
       </c>
@@ -17355,7 +17359,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="656" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B656" s="1">
         <v>44585</v>
       </c>
@@ -17369,7 +17373,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="657" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B657" s="1">
         <v>44585</v>
       </c>
@@ -17383,7 +17387,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="658" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B658" s="1">
         <v>44585</v>
       </c>
@@ -17397,7 +17401,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="659" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B659" s="1">
         <v>44585</v>
       </c>
@@ -17411,7 +17415,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="660" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B660" s="1">
         <v>44585</v>
       </c>
@@ -17425,7 +17429,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="661" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B661" s="1">
         <v>44585</v>
       </c>
@@ -17439,7 +17443,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="662" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B662" s="1">
         <v>44585</v>
       </c>
@@ -17453,7 +17457,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="663" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B663" s="1">
         <v>44585</v>
       </c>
@@ -17467,7 +17471,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="664" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B664" s="1">
         <v>44585</v>
       </c>
@@ -17481,7 +17485,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="665" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B665" s="1">
         <v>44585</v>
       </c>
@@ -17495,7 +17499,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="666" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B666" s="1">
         <v>44585</v>
       </c>
@@ -17509,7 +17513,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="667" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B667" s="1">
         <v>44585</v>
       </c>
@@ -17523,7 +17527,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="668" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B668" s="1">
         <v>44585</v>
       </c>
@@ -17537,7 +17541,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="669" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B669" s="1">
         <v>44585</v>
       </c>
@@ -17551,7 +17555,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="670" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B670" s="1">
         <v>44585</v>
       </c>
@@ -17565,7 +17569,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="671" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B671" s="1">
         <v>44586</v>
       </c>
@@ -17579,7 +17583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="672" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B672" s="1">
         <v>44586</v>
       </c>
@@ -17593,7 +17597,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="673" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B673" s="1">
         <v>44586</v>
       </c>
@@ -17607,7 +17611,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="674" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B674" s="1">
         <v>44586</v>
       </c>
@@ -17621,7 +17625,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="675" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B675" s="1">
         <v>44586</v>
       </c>
@@ -17635,7 +17639,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="676" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B676" s="1">
         <v>44586</v>
       </c>
@@ -17649,7 +17653,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="677" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B677" s="1">
         <v>44586</v>
       </c>
@@ -17663,7 +17667,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="678" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B678" s="1">
         <v>44586</v>
       </c>
@@ -17677,7 +17681,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="679" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B679" s="1">
         <v>44586</v>
       </c>
@@ -17691,7 +17695,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="680" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B680" s="1">
         <v>44586</v>
       </c>
@@ -17705,7 +17709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="681" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B681" s="1">
         <v>44586</v>
       </c>
@@ -17719,7 +17723,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="682" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B682" s="1">
         <v>44586</v>
       </c>
@@ -17733,7 +17737,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="683" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B683" s="1">
         <v>44586</v>
       </c>
@@ -17747,7 +17751,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="684" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B684" s="1">
         <v>44586</v>
       </c>
@@ -17761,7 +17765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="685" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B685" s="1">
         <v>44586</v>
       </c>
@@ -17775,7 +17779,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="686" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B686" s="1">
         <v>44586</v>
       </c>
@@ -17789,7 +17793,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="687" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B687" s="1">
         <v>44586</v>
       </c>
@@ -17803,7 +17807,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="688" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B688" s="1">
         <v>44586</v>
       </c>
@@ -17817,7 +17821,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="689" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B689" s="1">
         <v>44586</v>
       </c>
@@ -17831,7 +17835,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="690" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B690" s="1">
         <v>44586</v>
       </c>
@@ -17845,7 +17849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="691" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B691" s="1">
         <v>44586</v>
       </c>
@@ -17859,7 +17863,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="692" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B692" s="1">
         <v>44586</v>
       </c>
@@ -17873,7 +17877,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="693" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B693" s="1">
         <v>44586</v>
       </c>
@@ -17887,7 +17891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="694" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B694" s="1">
         <v>44586</v>
       </c>
@@ -17901,7 +17905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="695" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B695" s="1">
         <v>44586</v>
       </c>
@@ -17915,7 +17919,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="696" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B696" s="1">
         <v>44586</v>
       </c>
@@ -17929,7 +17933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="697" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B697" s="1">
         <v>44586</v>
       </c>
@@ -17943,7 +17947,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="698" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B698" s="1">
         <v>44586</v>
       </c>
@@ -17957,7 +17961,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="699" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B699" s="1">
         <v>44586</v>
       </c>
@@ -17971,7 +17975,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="700" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B700" s="1">
         <v>44586</v>
       </c>
@@ -17985,7 +17989,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="701" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B701" s="1">
         <v>44586</v>
       </c>
@@ -17999,7 +18003,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="702" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B702" s="1">
         <v>44586</v>
       </c>
@@ -18013,7 +18017,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="703" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B703" s="1">
         <v>44587</v>
       </c>
@@ -18027,7 +18031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B704" s="1">
         <v>44587</v>
       </c>
@@ -18041,7 +18045,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="705" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B705" s="1">
         <v>44587</v>
       </c>
@@ -18055,7 +18059,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="706" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B706" s="1">
         <v>44587</v>
       </c>
@@ -18069,7 +18073,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="707" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B707" s="1">
         <v>44587</v>
       </c>
@@ -18083,7 +18087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B708" s="1">
         <v>44587</v>
       </c>
@@ -18097,7 +18101,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="709" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B709" s="1">
         <v>44587</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="710" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B710" s="1">
         <v>44587</v>
       </c>
@@ -18125,7 +18129,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="711" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B711" s="1">
         <v>44587</v>
       </c>
@@ -18139,7 +18143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B712" s="1">
         <v>44587</v>
       </c>
@@ -18153,7 +18157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="713" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B713" s="1">
         <v>44587</v>
       </c>
@@ -18167,7 +18171,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="714" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B714" s="1">
         <v>44587</v>
       </c>
@@ -18181,7 +18185,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="715" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B715" s="1">
         <v>44587</v>
       </c>
@@ -18195,7 +18199,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="716" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B716" s="1">
         <v>44587</v>
       </c>
@@ -18209,7 +18213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="717" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B717" s="1">
         <v>44587</v>
       </c>
@@ -18223,7 +18227,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="718" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B718" s="1">
         <v>44587</v>
       </c>
@@ -18237,7 +18241,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="719" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B719" s="1">
         <v>44587</v>
       </c>
@@ -18251,7 +18255,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="720" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B720" s="1">
         <v>44587</v>
       </c>
@@ -18265,7 +18269,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="721" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B721" s="1">
         <v>44587</v>
       </c>
@@ -18279,7 +18283,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="722" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B722" s="1">
         <v>44587</v>
       </c>
@@ -18293,7 +18297,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="723" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B723" s="1">
         <v>44587</v>
       </c>
@@ -18307,7 +18311,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="724" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B724" s="1">
         <v>44587</v>
       </c>
@@ -18321,7 +18325,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="725" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B725" s="1">
         <v>44587</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="726" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B726" s="1">
         <v>44587</v>
       </c>
@@ -18349,7 +18353,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="727" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B727" s="1">
         <v>44587</v>
       </c>
@@ -18363,7 +18367,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="728" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B728" s="1">
         <v>44587</v>
       </c>
@@ -18377,7 +18381,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="729" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B729" s="1">
         <v>44587</v>
       </c>
@@ -18391,7 +18395,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="730" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B730" s="1">
         <v>44587</v>
       </c>
@@ -18405,7 +18409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="731" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B731" s="1">
         <v>44587</v>
       </c>
@@ -18419,7 +18423,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="732" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B732" s="1">
         <v>44587</v>
       </c>
@@ -18433,7 +18437,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="733" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B733" s="1">
         <v>44587</v>
       </c>
@@ -18447,7 +18451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="734" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B734" s="1">
         <v>44587</v>
       </c>
@@ -18461,7 +18465,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="735" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B735" s="1">
         <v>44587</v>
       </c>
@@ -18475,7 +18479,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="736" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B736" s="1">
         <v>44587</v>
       </c>
@@ -18489,7 +18493,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="737" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B737" s="1">
         <v>44588</v>
       </c>
@@ -18503,7 +18507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="738" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B738" s="1">
         <v>44588</v>
       </c>
@@ -18517,7 +18521,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="739" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B739" s="1">
         <v>44588</v>
       </c>
@@ -18531,7 +18535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="740" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B740" s="1">
         <v>44588</v>
       </c>
@@ -18545,7 +18549,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="741" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B741" s="1">
         <v>44588</v>
       </c>
@@ -18559,7 +18563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="742" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B742" s="1">
         <v>44588</v>
       </c>
@@ -18573,7 +18577,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="743" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B743" s="1">
         <v>44588</v>
       </c>
@@ -18587,7 +18591,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="744" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B744" s="1">
         <v>44588</v>
       </c>
@@ -18601,7 +18605,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="745" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B745" s="1">
         <v>44588</v>
       </c>
@@ -18615,7 +18619,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="746" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B746" s="1">
         <v>44588</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="747" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B747" s="1">
         <v>44588</v>
       </c>
@@ -18643,7 +18647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="748" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B748" s="1">
         <v>44588</v>
       </c>
@@ -18657,7 +18661,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="749" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B749" s="1">
         <v>44588</v>
       </c>
@@ -18671,7 +18675,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="750" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B750" s="1">
         <v>44588</v>
       </c>
@@ -18685,7 +18689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B751" s="1">
         <v>44588</v>
       </c>
@@ -18699,7 +18703,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="752" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B752" s="1">
         <v>44588</v>
       </c>
@@ -18713,7 +18717,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="753" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B753" s="1">
         <v>44588</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="754" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B754" s="1">
         <v>44588</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="755" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B755" s="1">
         <v>44588</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="756" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B756" s="1">
         <v>44588</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="757" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B757" s="1">
         <v>44588</v>
       </c>
@@ -18783,7 +18787,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="758" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B758" s="1">
         <v>44588</v>
       </c>
@@ -18797,7 +18801,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="759" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B759" s="1">
         <v>44588</v>
       </c>
@@ -18811,7 +18815,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="760" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B760" s="1">
         <v>44588</v>
       </c>
@@ -18825,7 +18829,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="761" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B761" s="1">
         <v>44588</v>
       </c>
@@ -18839,7 +18843,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="762" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B762" s="1">
         <v>44588</v>
       </c>
@@ -18853,7 +18857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="763" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B763" s="1">
         <v>44588</v>
       </c>
@@ -18867,7 +18871,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="764" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B764" s="1">
         <v>44588</v>
       </c>
@@ -18881,7 +18885,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="765" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B765" s="1">
         <v>44588</v>
       </c>
@@ -18895,7 +18899,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="766" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B766" s="1">
         <v>44588</v>
       </c>
@@ -18909,7 +18913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="767" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B767" s="1">
         <v>44588</v>
       </c>
@@ -18923,7 +18927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="768" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B768" s="1">
         <v>44588</v>
       </c>
@@ -18937,7 +18941,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="769" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B769" s="1">
         <v>44588</v>
       </c>
@@ -18951,7 +18955,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="770" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B770" s="1">
         <v>44588</v>
       </c>
@@ -18965,7 +18969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="771" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B771" s="1">
         <v>44588</v>
       </c>
@@ -18979,7 +18983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="772" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B772" s="1">
         <v>44588</v>
       </c>
@@ -18993,7 +18997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="773" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B773" s="1">
         <v>44588</v>
       </c>
@@ -19007,7 +19011,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="774" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B774" s="1">
         <v>44588</v>
       </c>
@@ -19021,7 +19025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="775" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B775" s="1">
         <v>44588</v>
       </c>
@@ -19035,7 +19039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="776" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B776" s="1">
         <v>44588</v>
       </c>
@@ -19049,7 +19053,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="777" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B777" s="1">
         <v>44588</v>
       </c>
@@ -19063,7 +19067,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="778" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B778" s="1">
         <v>44589</v>
       </c>
@@ -19077,7 +19081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="779" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B779" s="1">
         <v>44589</v>
       </c>
@@ -19091,7 +19095,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="780" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B780" s="1">
         <v>44589</v>
       </c>
@@ -19105,7 +19109,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="781" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B781" s="1">
         <v>44589</v>
       </c>
@@ -19119,7 +19123,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="782" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B782" s="1">
         <v>44589</v>
       </c>
@@ -19133,7 +19137,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="783" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B783" s="1">
         <v>44589</v>
       </c>
@@ -19147,7 +19151,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="784" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B784" s="1">
         <v>44589</v>
       </c>
@@ -19161,7 +19165,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="785" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B785" s="1">
         <v>44589</v>
       </c>
@@ -19175,7 +19179,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="786" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B786" s="1">
         <v>44589</v>
       </c>
@@ -19189,7 +19193,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="787" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B787" s="1">
         <v>44589</v>
       </c>
@@ -19203,7 +19207,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="788" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B788" s="1">
         <v>44589</v>
       </c>
@@ -19217,7 +19221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="789" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B789" s="1">
         <v>44589</v>
       </c>
@@ -19231,7 +19235,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="790" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B790" s="1">
         <v>44589</v>
       </c>
@@ -19245,7 +19249,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="791" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B791" s="1">
         <v>44589</v>
       </c>
@@ -19259,7 +19263,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="792" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B792" s="1">
         <v>44589</v>
       </c>
@@ -19273,7 +19277,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="793" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B793" s="1">
         <v>44589</v>
       </c>
@@ -19287,7 +19291,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="794" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B794" s="1">
         <v>44589</v>
       </c>
@@ -19301,7 +19305,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="795" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B795" s="1">
         <v>44589</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="796" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B796" s="1">
         <v>44589</v>
       </c>
@@ -19329,7 +19333,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="797" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B797" s="1">
         <v>44589</v>
       </c>
@@ -19343,7 +19347,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="798" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B798" s="1">
         <v>44589</v>
       </c>
@@ -19357,7 +19361,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="799" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B799" s="1">
         <v>44589</v>
       </c>
@@ -19371,7 +19375,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="800" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B800" s="1">
         <v>44589</v>
       </c>
@@ -19385,7 +19389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="801" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B801" s="1">
         <v>44589</v>
       </c>
@@ -19399,7 +19403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="802" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B802" s="1">
         <v>44589</v>
       </c>
@@ -19413,7 +19417,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="803" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B803" s="1">
         <v>44589</v>
       </c>
@@ -19427,7 +19431,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="804" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B804" s="1">
         <v>44589</v>
       </c>
@@ -19441,7 +19445,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="805" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B805" s="1">
         <v>44589</v>
       </c>
@@ -19455,7 +19459,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="806" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B806" s="1">
         <v>44589</v>
       </c>
@@ -19469,7 +19473,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="807" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B807" s="1">
         <v>44589</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="808" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B808" s="1">
         <v>44589</v>
       </c>
@@ -19497,7 +19501,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="809" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B809" s="1">
         <v>44589</v>
       </c>
@@ -19511,7 +19515,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="810" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B810" s="1">
         <v>44589</v>
       </c>
@@ -19525,7 +19529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="811" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B811" s="1">
         <v>44589</v>
       </c>
@@ -19539,7 +19543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="812" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B812" s="1">
         <v>44589</v>
       </c>
@@ -19553,7 +19557,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="813" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B813" s="1">
         <v>44589</v>
       </c>
@@ -19567,7 +19571,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="814" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B814" s="1">
         <v>44589</v>
       </c>
@@ -19595,7 +19599,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="816" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B816" s="1">
         <v>44589</v>
       </c>
@@ -19609,7 +19613,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="817" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B817" s="1">
         <v>44589</v>
       </c>
@@ -19623,7 +19627,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="818" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B818" s="1">
         <v>44589</v>
       </c>
@@ -19637,7 +19641,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="819" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B819" s="1">
         <v>44589</v>
       </c>
@@ -19651,7 +19655,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="820" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B820" s="1">
         <v>44589</v>
       </c>
@@ -19665,7 +19669,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="821" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B821" s="1">
         <v>44590</v>
       </c>
@@ -19679,7 +19683,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="822" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B822" s="1">
         <v>44590</v>
       </c>
@@ -19693,7 +19697,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="823" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B823" s="1">
         <v>44590</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="824" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B824" s="1">
         <v>44590</v>
       </c>
@@ -19721,7 +19725,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="825" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B825" s="1">
         <v>44590</v>
       </c>
@@ -19735,7 +19739,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="826" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B826" s="1">
         <v>44590</v>
       </c>
@@ -19749,7 +19753,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="827" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B827" s="1">
         <v>44590</v>
       </c>
@@ -19763,7 +19767,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="828" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B828" s="1">
         <v>44590</v>
       </c>
@@ -19777,7 +19781,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="829" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B829" s="1">
         <v>44590</v>
       </c>
@@ -19791,7 +19795,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="830" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B830" s="1">
         <v>44590</v>
       </c>
@@ -19805,7 +19809,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="831" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B831" s="1">
         <v>44590</v>
       </c>
@@ -19819,7 +19823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="832" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B832" s="1">
         <v>44590</v>
       </c>
@@ -19833,7 +19837,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="833" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B833" s="1">
         <v>44590</v>
       </c>
@@ -19847,7 +19851,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="834" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B834" s="1">
         <v>44590</v>
       </c>
@@ -19861,7 +19865,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="835" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B835" s="1">
         <v>44590</v>
       </c>
@@ -19875,7 +19879,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="836" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B836" s="1">
         <v>44590</v>
       </c>
@@ -19889,7 +19893,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="837" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B837" s="1">
         <v>44590</v>
       </c>
@@ -19903,7 +19907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="838" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B838" s="1">
         <v>44590</v>
       </c>
@@ -19917,7 +19921,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="839" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B839" s="1">
         <v>44590</v>
       </c>
@@ -19931,7 +19935,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="840" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B840" s="1">
         <v>44590</v>
       </c>
@@ -19945,7 +19949,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="841" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B841" s="1">
         <v>44590</v>
       </c>
@@ -19959,7 +19963,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="842" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B842" s="1">
         <v>44590</v>
       </c>
@@ -19973,7 +19977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="843" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B843" s="1">
         <v>44590</v>
       </c>
@@ -19987,7 +19991,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="844" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B844" s="1">
         <v>44590</v>
       </c>
@@ -20001,7 +20005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="845" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B845" s="1">
         <v>44590</v>
       </c>
@@ -20015,7 +20019,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="846" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B846" s="1">
         <v>44590</v>
       </c>
@@ -20029,7 +20033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="847" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B847" s="1">
         <v>44590</v>
       </c>
@@ -20043,7 +20047,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="848" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B848" s="1">
         <v>44590</v>
       </c>
@@ -20057,7 +20061,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="849" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B849" s="1">
         <v>44590</v>
       </c>
@@ -20071,7 +20075,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="850" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B850" s="1">
         <v>44590</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="851" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B851" s="1">
         <v>44590</v>
       </c>
@@ -20099,7 +20103,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="852" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B852" s="1">
         <v>44591</v>
       </c>
@@ -20113,7 +20117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="853" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B853" s="1">
         <v>44591</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="855" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B855" s="1">
         <v>44591</v>
       </c>
@@ -20155,7 +20159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B856" s="1">
         <v>44591</v>
       </c>
@@ -20169,7 +20173,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="857" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B857" s="1">
         <v>44591</v>
       </c>
@@ -20183,7 +20187,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="858" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B858" s="1">
         <v>44591</v>
       </c>
@@ -20197,7 +20201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="859" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B859" s="1">
         <v>44591</v>
       </c>
@@ -20211,7 +20215,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="860" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B860" s="1">
         <v>44591</v>
       </c>
@@ -20225,7 +20229,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="861" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B861" s="1">
         <v>44591</v>
       </c>
@@ -20239,7 +20243,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="862" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B862" s="1">
         <v>44591</v>
       </c>
@@ -20253,7 +20257,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="863" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B863" s="1">
         <v>44591</v>
       </c>
@@ -20267,7 +20271,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="864" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B864" s="1">
         <v>44591</v>
       </c>
@@ -20281,7 +20285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="865" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B865" s="1">
         <v>44591</v>
       </c>
@@ -20295,7 +20299,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="866" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B866" s="1">
         <v>44591</v>
       </c>
@@ -20309,7 +20313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="867" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B867" s="1">
         <v>44592</v>
       </c>
@@ -20323,7 +20327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="868" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B868" s="1">
         <v>44592</v>
       </c>
@@ -20337,7 +20341,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="869" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B869" s="1">
         <v>44592</v>
       </c>
@@ -20351,7 +20355,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="870" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B870" s="1">
         <v>44592</v>
       </c>
@@ -20365,7 +20369,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="871" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B871" s="1">
         <v>44592</v>
       </c>
@@ -20379,7 +20383,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="872" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B872" s="1">
         <v>44592</v>
       </c>
@@ -20393,7 +20397,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="873" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B873" s="1">
         <v>44592</v>
       </c>
@@ -20407,7 +20411,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="874" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B874" s="1">
         <v>44592</v>
       </c>
@@ -20421,7 +20425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="875" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B875" s="1">
         <v>44592</v>
       </c>
@@ -20435,7 +20439,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="876" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B876" s="1">
         <v>44592</v>
       </c>
@@ -20449,7 +20453,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="877" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B877" s="1">
         <v>44592</v>
       </c>
@@ -20463,7 +20467,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="878" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B878" s="1">
         <v>44592</v>
       </c>
@@ -20477,7 +20481,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="879" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B879" s="1">
         <v>44592</v>
       </c>
@@ -20491,7 +20495,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="880" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B880" s="1">
         <v>44592</v>
       </c>
@@ -20505,7 +20509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="881" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B881" s="1">
         <v>44592</v>
       </c>
@@ -20519,7 +20523,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="882" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B882" s="1">
         <v>44592</v>
       </c>
@@ -20533,7 +20537,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="883" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B883" s="1">
         <v>44592</v>
       </c>
@@ -20547,7 +20551,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="884" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B884" s="1">
         <v>44592</v>
       </c>
@@ -20561,7 +20565,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="885" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B885" s="1">
         <v>44592</v>
       </c>
@@ -20575,7 +20579,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="886" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B886" s="1">
         <v>44592</v>
       </c>
@@ -20589,7 +20593,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="887" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B887" s="1">
         <v>44592</v>
       </c>
@@ -20603,7 +20607,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="888" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B888" s="1">
         <v>44592</v>
       </c>
@@ -20617,7 +20621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="889" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B889" s="1">
         <v>44592</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="890" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B890" s="1">
         <v>44592</v>
       </c>
@@ -20645,7 +20649,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="891" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B891" s="1">
         <v>44592</v>
       </c>
@@ -20659,7 +20663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="892" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B892" s="1">
         <v>44592</v>
       </c>
@@ -20673,7 +20677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="893" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B893" s="1">
         <v>44592</v>
       </c>
@@ -20687,7 +20691,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="894" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B894" s="1">
         <v>44592</v>
       </c>
@@ -20701,7 +20705,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="895" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B895" s="1">
         <v>44592</v>
       </c>
@@ -20715,7 +20719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B896" s="1">
         <v>44592</v>
       </c>
@@ -20729,7 +20733,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="897" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B897" s="1">
         <v>44592</v>
       </c>
@@ -20743,7 +20747,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="898" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B898" s="1">
         <v>44592</v>
       </c>
@@ -20757,7 +20761,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="899" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B899" s="1">
         <v>44592</v>
       </c>
@@ -20771,7 +20775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B900" s="1">
         <v>44592</v>
       </c>
@@ -20785,7 +20789,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="901" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B901" s="1">
         <v>44592</v>
       </c>
@@ -20799,7 +20803,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="902" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B902" s="1">
         <v>44592</v>
       </c>
@@ -20813,7 +20817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="903" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B903" s="1">
         <v>44592</v>
       </c>
@@ -20827,7 +20831,535 @@
         <v>192</v>
       </c>
     </row>
+    <row r="905" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C905" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="906" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C906" s="3">
+        <v>1</v>
+      </c>
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="907" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C907">
+        <v>2</v>
+      </c>
+      <c r="D907">
+        <v>4</v>
+      </c>
+      <c r="E907" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="908" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C908">
+        <v>3</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+      <c r="E908" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="909" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C909">
+        <v>4</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+      <c r="E909" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="910" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C910">
+        <v>5</v>
+      </c>
+      <c r="D910">
+        <v>1</v>
+      </c>
+      <c r="E910" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="911" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C911">
+        <v>6</v>
+      </c>
+      <c r="D911">
+        <v>2</v>
+      </c>
+      <c r="E911" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="912" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C912">
+        <v>7</v>
+      </c>
+      <c r="D912">
+        <v>1</v>
+      </c>
+      <c r="E912" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="913" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C913">
+        <v>8</v>
+      </c>
+      <c r="D913">
+        <v>1</v>
+      </c>
+      <c r="E913" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="914" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C914">
+        <v>9</v>
+      </c>
+      <c r="D914">
+        <v>1</v>
+      </c>
+      <c r="E914" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="915" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C915">
+        <v>10</v>
+      </c>
+      <c r="D915">
+        <v>1</v>
+      </c>
+      <c r="E915" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="916" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C916">
+        <v>11</v>
+      </c>
+      <c r="D916">
+        <v>4</v>
+      </c>
+      <c r="E916" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="917" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C917">
+        <v>12</v>
+      </c>
+      <c r="D917">
+        <v>23</v>
+      </c>
+      <c r="E917" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="918" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C918">
+        <v>13</v>
+      </c>
+      <c r="D918">
+        <v>1</v>
+      </c>
+      <c r="E918" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="919" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C919">
+        <v>14</v>
+      </c>
+      <c r="D919">
+        <v>1</v>
+      </c>
+      <c r="E919" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="920" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C920">
+        <v>15</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="921" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C921">
+        <v>16</v>
+      </c>
+      <c r="D921">
+        <v>3</v>
+      </c>
+      <c r="E921" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="922" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C922">
+        <v>17</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+      <c r="E922" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="923" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C923">
+        <v>18</v>
+      </c>
+      <c r="D923">
+        <v>1</v>
+      </c>
+      <c r="E923" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="924" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C924">
+        <v>19</v>
+      </c>
+      <c r="D924">
+        <v>1</v>
+      </c>
+      <c r="E924" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="925" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C925">
+        <v>20</v>
+      </c>
+      <c r="D925">
+        <v>2</v>
+      </c>
+      <c r="E925" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="926" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C926">
+        <v>21</v>
+      </c>
+      <c r="D926">
+        <v>1</v>
+      </c>
+      <c r="E926" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="927" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C927">
+        <v>22</v>
+      </c>
+      <c r="D927">
+        <v>2</v>
+      </c>
+      <c r="E927" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="928" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C928">
+        <v>23</v>
+      </c>
+      <c r="D928">
+        <v>1</v>
+      </c>
+      <c r="E928" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="929" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C929">
+        <v>24</v>
+      </c>
+      <c r="D929">
+        <v>4</v>
+      </c>
+      <c r="E929" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="930" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C930">
+        <v>25</v>
+      </c>
+      <c r="D930">
+        <v>9</v>
+      </c>
+      <c r="E930" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="931" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C931">
+        <v>26</v>
+      </c>
+      <c r="D931">
+        <v>2</v>
+      </c>
+      <c r="E931" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="932" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C932">
+        <v>27</v>
+      </c>
+      <c r="D932">
+        <v>5</v>
+      </c>
+      <c r="E932" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="933" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C933">
+        <v>28</v>
+      </c>
+      <c r="D933">
+        <v>1</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="934" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C934">
+        <v>29</v>
+      </c>
+      <c r="D934">
+        <v>3</v>
+      </c>
+      <c r="E934" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="935" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C935">
+        <v>30</v>
+      </c>
+      <c r="D935">
+        <v>4</v>
+      </c>
+      <c r="E935" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="936" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C936">
+        <v>31</v>
+      </c>
+      <c r="D936">
+        <v>1</v>
+      </c>
+      <c r="E936" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="937" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C937">
+        <v>32</v>
+      </c>
+      <c r="D937">
+        <v>2</v>
+      </c>
+      <c r="E937" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="938" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C938">
+        <v>33</v>
+      </c>
+      <c r="D938">
+        <v>1</v>
+      </c>
+      <c r="E938" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="939" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C939">
+        <v>34</v>
+      </c>
+      <c r="D939">
+        <v>1</v>
+      </c>
+      <c r="E939" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="940" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C940">
+        <v>35</v>
+      </c>
+      <c r="D940">
+        <v>17</v>
+      </c>
+      <c r="E940" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="941" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C941">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="942" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C942">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="943" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C943">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="944" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C944">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="945" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C945">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="946" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C946">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="947" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C947">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="948" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C948">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="949" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C949">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="950" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C950">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="951" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C951">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="952" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C952">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="953" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C953">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="954" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C954">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="955" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C955">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="956" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C956">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="957" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C957">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="958" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C958">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="959" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C959">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="960" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C960">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C961">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C962">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C963">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C964">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C965">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B2:E903" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="bernardo reyes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20837,7 +21369,7 @@
   <dimension ref="B2:E656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F635" sqref="F635"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30014,6 +30546,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{CCFBEADB-34D0-48A6-B493-BE79E7E628C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CoordenadasAccidentes.xlsx
+++ b/CoordenadasAccidentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BeatrizGarcia/Documents/GitHub/TesisDoctoral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245298F-ADF3-9947-A01F-84FB7AE2822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67075F-3110-FA41-A828-685E3CC5E9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="3120" windowWidth="10000" windowHeight="14720" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
+    <workbookView xWindow="16460" yWindow="3120" windowWidth="10000" windowHeight="14720" firstSheet="1" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo1 (00-08)" sheetId="1" r:id="rId1"/>
@@ -3150,11 +3150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3471,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B416306-B906-45CD-81F6-4F4CCAAB3EE1}">
   <dimension ref="B2:H271"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
@@ -8192,8 +8191,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:E965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D364" sqref="D364"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F904" sqref="F904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20843,7 +20842,7 @@
       </c>
     </row>
     <row r="906" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C906" s="3">
+      <c r="C906">
         <v>1</v>
       </c>
       <c r="D906">

--- a/CoordenadasAccidentes.xlsx
+++ b/CoordenadasAccidentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29EB990-D7FF-417E-8F6C-60B809B71AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E964192-FC0D-456B-9CF3-0B3E1CA28A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="1024">
   <si>
     <t>25.6727925, -100.352228</t>
   </si>
@@ -8189,20 +8189,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:E1005"/>
+  <dimension ref="B2:F1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A994" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1000" sqref="B1000"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1078" sqref="D1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44562</v>
       </c>
@@ -8229,8 +8230,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>44562</v>
       </c>
@@ -8243,8 +8247,11 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44562</v>
       </c>
@@ -8257,8 +8264,11 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44562</v>
       </c>
@@ -8271,8 +8281,11 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44562</v>
       </c>
@@ -8285,8 +8298,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44562</v>
       </c>
@@ -8299,8 +8315,11 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44562</v>
       </c>
@@ -8313,8 +8332,11 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44562</v>
       </c>
@@ -8327,8 +8349,11 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44562</v>
       </c>
@@ -8341,8 +8366,11 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44562</v>
       </c>
@@ -8355,8 +8383,11 @@
       <c r="E12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44562</v>
       </c>
@@ -8369,8 +8400,11 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44562</v>
       </c>
@@ -8383,8 +8417,11 @@
       <c r="E14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44562</v>
       </c>
@@ -8397,8 +8434,11 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44562</v>
       </c>
@@ -8411,8 +8451,11 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44562</v>
       </c>
@@ -8425,8 +8468,11 @@
       <c r="E17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44562</v>
       </c>
@@ -8439,8 +8485,11 @@
       <c r="E18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44562</v>
       </c>
@@ -8453,8 +8502,11 @@
       <c r="E19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44563</v>
       </c>
@@ -8467,8 +8519,11 @@
       <c r="E20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44563</v>
       </c>
@@ -8481,8 +8536,11 @@
       <c r="E21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44563</v>
       </c>
@@ -8495,8 +8553,11 @@
       <c r="E22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44563</v>
       </c>
@@ -8509,8 +8570,11 @@
       <c r="E23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44563</v>
       </c>
@@ -8523,8 +8587,11 @@
       <c r="E24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44563</v>
       </c>
@@ -8537,8 +8604,11 @@
       <c r="E25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44564</v>
       </c>
@@ -8551,8 +8621,11 @@
       <c r="E26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44564</v>
       </c>
@@ -8565,8 +8638,11 @@
       <c r="E27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44564</v>
       </c>
@@ -8579,8 +8655,11 @@
       <c r="E28" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44564</v>
       </c>
@@ -8593,8 +8672,11 @@
       <c r="E29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44564</v>
       </c>
@@ -8607,8 +8689,11 @@
       <c r="E30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44564</v>
       </c>
@@ -8621,8 +8706,11 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44564</v>
       </c>
@@ -8635,8 +8723,11 @@
       <c r="E32" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44564</v>
       </c>
@@ -8649,8 +8740,11 @@
       <c r="E33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44564</v>
       </c>
@@ -8663,8 +8757,11 @@
       <c r="E34" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44564</v>
       </c>
@@ -8677,8 +8774,11 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44564</v>
       </c>
@@ -8691,8 +8791,11 @@
       <c r="E36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44564</v>
       </c>
@@ -8705,8 +8808,11 @@
       <c r="E37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44564</v>
       </c>
@@ -8719,8 +8825,11 @@
       <c r="E38" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44564</v>
       </c>
@@ -8733,8 +8842,11 @@
       <c r="E39" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44564</v>
       </c>
@@ -8747,8 +8859,11 @@
       <c r="E40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44564</v>
       </c>
@@ -8761,8 +8876,11 @@
       <c r="E41" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44564</v>
       </c>
@@ -8775,8 +8893,11 @@
       <c r="E42" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44564</v>
       </c>
@@ -8789,8 +8910,11 @@
       <c r="E43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44564</v>
       </c>
@@ -8803,8 +8927,11 @@
       <c r="E44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44564</v>
       </c>
@@ -8817,8 +8944,11 @@
       <c r="E45" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44564</v>
       </c>
@@ -8831,8 +8961,11 @@
       <c r="E46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44564</v>
       </c>
@@ -8845,8 +8978,11 @@
       <c r="E47" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44564</v>
       </c>
@@ -8859,8 +8995,11 @@
       <c r="E48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44564</v>
       </c>
@@ -8873,8 +9012,11 @@
       <c r="E49" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44564</v>
       </c>
@@ -8887,8 +9029,11 @@
       <c r="E50" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44564</v>
       </c>
@@ -8901,8 +9046,11 @@
       <c r="E51" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44564</v>
       </c>
@@ -8915,8 +9063,11 @@
       <c r="E52" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44564</v>
       </c>
@@ -8929,8 +9080,11 @@
       <c r="E53" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44564</v>
       </c>
@@ -8943,8 +9097,11 @@
       <c r="E54" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44565</v>
       </c>
@@ -8957,8 +9114,11 @@
       <c r="E55" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44565</v>
       </c>
@@ -8971,8 +9131,11 @@
       <c r="E56" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44565</v>
       </c>
@@ -8985,8 +9148,11 @@
       <c r="E57" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44565</v>
       </c>
@@ -8999,8 +9165,11 @@
       <c r="E58" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44565</v>
       </c>
@@ -9013,8 +9182,11 @@
       <c r="E59" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44565</v>
       </c>
@@ -9027,8 +9199,11 @@
       <c r="E60" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>44565</v>
       </c>
@@ -9041,8 +9216,11 @@
       <c r="E61" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44565</v>
       </c>
@@ -9055,8 +9233,11 @@
       <c r="E62" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44565</v>
       </c>
@@ -9069,8 +9250,11 @@
       <c r="E63" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44565</v>
       </c>
@@ -9083,8 +9267,11 @@
       <c r="E64" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>44565</v>
       </c>
@@ -9097,8 +9284,11 @@
       <c r="E65" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44565</v>
       </c>
@@ -9111,8 +9301,11 @@
       <c r="E66" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44565</v>
       </c>
@@ -9125,8 +9318,11 @@
       <c r="E67" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44565</v>
       </c>
@@ -9139,8 +9335,11 @@
       <c r="E68" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44565</v>
       </c>
@@ -9153,8 +9352,11 @@
       <c r="E69" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>44565</v>
       </c>
@@ -9167,8 +9369,11 @@
       <c r="E70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44565</v>
       </c>
@@ -9181,8 +9386,11 @@
       <c r="E71" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44565</v>
       </c>
@@ -9195,8 +9403,11 @@
       <c r="E72" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44565</v>
       </c>
@@ -9209,8 +9420,11 @@
       <c r="E73" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>44565</v>
       </c>
@@ -9223,8 +9437,11 @@
       <c r="E74" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44565</v>
       </c>
@@ -9237,8 +9454,11 @@
       <c r="E75" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44565</v>
       </c>
@@ -9251,8 +9471,11 @@
       <c r="E76" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>44565</v>
       </c>
@@ -9265,8 +9488,11 @@
       <c r="E77" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44565</v>
       </c>
@@ -9279,8 +9505,11 @@
       <c r="E78" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44565</v>
       </c>
@@ -9293,8 +9522,11 @@
       <c r="E79" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44565</v>
       </c>
@@ -9307,8 +9539,11 @@
       <c r="E80" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44565</v>
       </c>
@@ -9321,8 +9556,11 @@
       <c r="E81" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44565</v>
       </c>
@@ -9335,8 +9573,11 @@
       <c r="E82" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44565</v>
       </c>
@@ -9349,8 +9590,11 @@
       <c r="E83" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44565</v>
       </c>
@@ -9363,8 +9607,11 @@
       <c r="E84" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>44565</v>
       </c>
@@ -9377,8 +9624,11 @@
       <c r="E85" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44565</v>
       </c>
@@ -9391,8 +9641,11 @@
       <c r="E86" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44565</v>
       </c>
@@ -9405,8 +9658,11 @@
       <c r="E87" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44565</v>
       </c>
@@ -9419,8 +9675,11 @@
       <c r="E88" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44565</v>
       </c>
@@ -9433,8 +9692,11 @@
       <c r="E89" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>44565</v>
       </c>
@@ -9447,8 +9709,11 @@
       <c r="E90" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44565</v>
       </c>
@@ -9461,8 +9726,11 @@
       <c r="E91" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44565</v>
       </c>
@@ -9475,8 +9743,11 @@
       <c r="E92" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44565</v>
       </c>
@@ -9489,8 +9760,11 @@
       <c r="E93" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44565</v>
       </c>
@@ -9503,8 +9777,11 @@
       <c r="E94" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44565</v>
       </c>
@@ -9517,8 +9794,11 @@
       <c r="E95" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44565</v>
       </c>
@@ -9531,8 +9811,11 @@
       <c r="E96" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44566</v>
       </c>
@@ -9545,8 +9828,11 @@
       <c r="E97" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44566</v>
       </c>
@@ -9559,8 +9845,11 @@
       <c r="E98" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44566</v>
       </c>
@@ -9573,8 +9862,11 @@
       <c r="E99" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44566</v>
       </c>
@@ -9587,8 +9879,11 @@
       <c r="E100" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>44566</v>
       </c>
@@ -9601,8 +9896,11 @@
       <c r="E101" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44566</v>
       </c>
@@ -9615,8 +9913,11 @@
       <c r="E102" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44566</v>
       </c>
@@ -9629,8 +9930,11 @@
       <c r="E103" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44566</v>
       </c>
@@ -9643,8 +9947,11 @@
       <c r="E104" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44566</v>
       </c>
@@ -9657,8 +9964,11 @@
       <c r="E105" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44566</v>
       </c>
@@ -9671,8 +9981,11 @@
       <c r="E106" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44566</v>
       </c>
@@ -9685,8 +9998,11 @@
       <c r="E107" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>44566</v>
       </c>
@@ -9699,8 +10015,11 @@
       <c r="E108" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44566</v>
       </c>
@@ -9713,8 +10032,11 @@
       <c r="E109" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44566</v>
       </c>
@@ -9727,8 +10049,11 @@
       <c r="E110" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44566</v>
       </c>
@@ -9741,8 +10066,11 @@
       <c r="E111" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44566</v>
       </c>
@@ -9755,8 +10083,11 @@
       <c r="E112" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>44566</v>
       </c>
@@ -9769,8 +10100,11 @@
       <c r="E113" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>44566</v>
       </c>
@@ -9783,8 +10117,11 @@
       <c r="E114" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>44566</v>
       </c>
@@ -9797,8 +10134,11 @@
       <c r="E115" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>44566</v>
       </c>
@@ -9811,8 +10151,11 @@
       <c r="E116" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>44566</v>
       </c>
@@ -9825,8 +10168,11 @@
       <c r="E117" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>44566</v>
       </c>
@@ -9839,8 +10185,11 @@
       <c r="E118" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44566</v>
       </c>
@@ -9853,8 +10202,11 @@
       <c r="E119" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>44566</v>
       </c>
@@ -9867,8 +10219,11 @@
       <c r="E120" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>44566</v>
       </c>
@@ -9881,8 +10236,11 @@
       <c r="E121" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>44566</v>
       </c>
@@ -9895,8 +10253,11 @@
       <c r="E122" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>44566</v>
       </c>
@@ -9909,8 +10270,11 @@
       <c r="E123" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>44566</v>
       </c>
@@ -9923,8 +10287,11 @@
       <c r="E124" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>44566</v>
       </c>
@@ -9937,8 +10304,11 @@
       <c r="E125" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>44566</v>
       </c>
@@ -9951,8 +10321,11 @@
       <c r="E126" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>44566</v>
       </c>
@@ -9965,8 +10338,11 @@
       <c r="E127" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>44566</v>
       </c>
@@ -9979,8 +10355,11 @@
       <c r="E128" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>44566</v>
       </c>
@@ -9993,8 +10372,11 @@
       <c r="E129" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>44566</v>
       </c>
@@ -10007,8 +10389,11 @@
       <c r="E130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>44566</v>
       </c>
@@ -10021,8 +10406,11 @@
       <c r="E131" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>44566</v>
       </c>
@@ -10035,8 +10423,11 @@
       <c r="E132" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>44566</v>
       </c>
@@ -10049,8 +10440,11 @@
       <c r="E133" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>44566</v>
       </c>
@@ -10063,8 +10457,11 @@
       <c r="E134" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>44566</v>
       </c>
@@ -10077,8 +10474,11 @@
       <c r="E135" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>44566</v>
       </c>
@@ -10091,8 +10491,11 @@
       <c r="E136" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>44566</v>
       </c>
@@ -10105,8 +10508,11 @@
       <c r="E137" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>44566</v>
       </c>
@@ -10119,8 +10525,11 @@
       <c r="E138" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>44566</v>
       </c>
@@ -10133,8 +10542,11 @@
       <c r="E139" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>44566</v>
       </c>
@@ -10147,8 +10559,11 @@
       <c r="E140" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>44566</v>
       </c>
@@ -10161,8 +10576,11 @@
       <c r="E141" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>44566</v>
       </c>
@@ -10175,8 +10593,11 @@
       <c r="E142" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>44566</v>
       </c>
@@ -10189,8 +10610,11 @@
       <c r="E143" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>44566</v>
       </c>
@@ -10203,8 +10627,11 @@
       <c r="E144" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>44567</v>
       </c>
@@ -10217,8 +10644,11 @@
       <c r="E145" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>44567</v>
       </c>
@@ -10231,8 +10661,11 @@
       <c r="E146" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>44567</v>
       </c>
@@ -10245,8 +10678,11 @@
       <c r="E147" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>44567</v>
       </c>
@@ -10259,8 +10695,11 @@
       <c r="E148" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>44567</v>
       </c>
@@ -10273,8 +10712,11 @@
       <c r="E149" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>44567</v>
       </c>
@@ -10287,8 +10729,11 @@
       <c r="E150" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>44567</v>
       </c>
@@ -10301,8 +10746,11 @@
       <c r="E151" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>44567</v>
       </c>
@@ -10315,8 +10763,11 @@
       <c r="E152" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>44567</v>
       </c>
@@ -10329,8 +10780,11 @@
       <c r="E153" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>44567</v>
       </c>
@@ -10343,8 +10797,11 @@
       <c r="E154" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>44567</v>
       </c>
@@ -10357,8 +10814,11 @@
       <c r="E155" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>44567</v>
       </c>
@@ -10371,8 +10831,11 @@
       <c r="E156" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>44567</v>
       </c>
@@ -10385,8 +10848,11 @@
       <c r="E157" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>44567</v>
       </c>
@@ -10399,8 +10865,11 @@
       <c r="E158" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>44567</v>
       </c>
@@ -10413,8 +10882,11 @@
       <c r="E159" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>44567</v>
       </c>
@@ -10427,8 +10899,11 @@
       <c r="E160" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44567</v>
       </c>
@@ -10441,8 +10916,11 @@
       <c r="E161" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="162" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>44567</v>
       </c>
@@ -10455,8 +10933,11 @@
       <c r="E162" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>44567</v>
       </c>
@@ -10469,8 +10950,11 @@
       <c r="E163" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="164" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>44567</v>
       </c>
@@ -10483,8 +10967,11 @@
       <c r="E164" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="165" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>44567</v>
       </c>
@@ -10497,8 +10984,11 @@
       <c r="E165" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="166" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>44567</v>
       </c>
@@ -10511,8 +11001,11 @@
       <c r="E166" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>44567</v>
       </c>
@@ -10525,8 +11018,11 @@
       <c r="E167" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>44567</v>
       </c>
@@ -10539,8 +11035,11 @@
       <c r="E168" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>44567</v>
       </c>
@@ -10553,8 +11052,11 @@
       <c r="E169" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>44567</v>
       </c>
@@ -10567,8 +11069,11 @@
       <c r="E170" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="171" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>44567</v>
       </c>
@@ -10581,8 +11086,11 @@
       <c r="E171" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="172" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>44567</v>
       </c>
@@ -10595,8 +11103,11 @@
       <c r="E172" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="173" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>44568</v>
       </c>
@@ -10609,8 +11120,11 @@
       <c r="E173" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="174" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>44568</v>
       </c>
@@ -10623,8 +11137,11 @@
       <c r="E174" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="175" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>44568</v>
       </c>
@@ -10637,8 +11154,11 @@
       <c r="E175" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="176" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>44568</v>
       </c>
@@ -10651,8 +11171,11 @@
       <c r="E176" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>44568</v>
       </c>
@@ -10665,8 +11188,11 @@
       <c r="E177" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>44568</v>
       </c>
@@ -10679,8 +11205,11 @@
       <c r="E178" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>44568</v>
       </c>
@@ -10693,8 +11222,11 @@
       <c r="E179" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>44568</v>
       </c>
@@ -10707,8 +11239,11 @@
       <c r="E180" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>44568</v>
       </c>
@@ -10721,8 +11256,11 @@
       <c r="E181" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>44568</v>
       </c>
@@ -10735,8 +11273,11 @@
       <c r="E182" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>44568</v>
       </c>
@@ -10749,8 +11290,11 @@
       <c r="E183" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>44568</v>
       </c>
@@ -10763,8 +11307,11 @@
       <c r="E184" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>44568</v>
       </c>
@@ -10777,8 +11324,11 @@
       <c r="E185" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>44568</v>
       </c>
@@ -10791,8 +11341,11 @@
       <c r="E186" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>44568</v>
       </c>
@@ -10805,8 +11358,11 @@
       <c r="E187" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>44568</v>
       </c>
@@ -10819,8 +11375,11 @@
       <c r="E188" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>44568</v>
       </c>
@@ -10833,8 +11392,11 @@
       <c r="E189" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>44568</v>
       </c>
@@ -10847,8 +11409,11 @@
       <c r="E190" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="191" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>44568</v>
       </c>
@@ -10861,8 +11426,11 @@
       <c r="E191" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="192" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>44568</v>
       </c>
@@ -10875,8 +11443,11 @@
       <c r="E192" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>44568</v>
       </c>
@@ -10889,8 +11460,11 @@
       <c r="E193" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>44568</v>
       </c>
@@ -10903,8 +11477,11 @@
       <c r="E194" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>44568</v>
       </c>
@@ -10917,8 +11494,11 @@
       <c r="E195" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>44568</v>
       </c>
@@ -10931,8 +11511,11 @@
       <c r="E196" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>44568</v>
       </c>
@@ -10945,8 +11528,11 @@
       <c r="E197" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>44568</v>
       </c>
@@ -10959,8 +11545,11 @@
       <c r="E198" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>44568</v>
       </c>
@@ -10973,8 +11562,11 @@
       <c r="E199" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>44568</v>
       </c>
@@ -10987,8 +11579,11 @@
       <c r="E200" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>44568</v>
       </c>
@@ -11001,8 +11596,11 @@
       <c r="E201" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>44569</v>
       </c>
@@ -11015,8 +11613,11 @@
       <c r="E202" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>44569</v>
       </c>
@@ -11029,8 +11630,11 @@
       <c r="E203" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>44569</v>
       </c>
@@ -11043,8 +11647,11 @@
       <c r="E204" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>44569</v>
       </c>
@@ -11057,8 +11664,11 @@
       <c r="E205" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>44569</v>
       </c>
@@ -11071,8 +11681,11 @@
       <c r="E206" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>44569</v>
       </c>
@@ -11085,8 +11698,11 @@
       <c r="E207" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>44569</v>
       </c>
@@ -11099,8 +11715,11 @@
       <c r="E208" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>44569</v>
       </c>
@@ -11113,8 +11732,11 @@
       <c r="E209" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>44569</v>
       </c>
@@ -11127,8 +11749,11 @@
       <c r="E210" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>44569</v>
       </c>
@@ -11141,8 +11766,11 @@
       <c r="E211" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>44569</v>
       </c>
@@ -11155,8 +11783,11 @@
       <c r="E212" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>44569</v>
       </c>
@@ -11169,8 +11800,11 @@
       <c r="E213" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>44569</v>
       </c>
@@ -11183,8 +11817,11 @@
       <c r="E214" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="215" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>44569</v>
       </c>
@@ -11197,8 +11834,11 @@
       <c r="E215" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="216" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>44569</v>
       </c>
@@ -11211,8 +11851,11 @@
       <c r="E216" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="217" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>44569</v>
       </c>
@@ -11225,8 +11868,11 @@
       <c r="E217" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="218" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>44569</v>
       </c>
@@ -11239,8 +11885,11 @@
       <c r="E218" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F218" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>44569</v>
       </c>
@@ -11253,8 +11902,11 @@
       <c r="E219" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F219" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>44569</v>
       </c>
@@ -11267,8 +11919,11 @@
       <c r="E220" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F220" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>44569</v>
       </c>
@@ -11281,8 +11936,11 @@
       <c r="E221" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>44569</v>
       </c>
@@ -11295,8 +11953,11 @@
       <c r="E222" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>44569</v>
       </c>
@@ -11309,8 +11970,11 @@
       <c r="E223" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>44569</v>
       </c>
@@ -11323,8 +11987,11 @@
       <c r="E224" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="225" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>44569</v>
       </c>
@@ -11337,8 +12004,11 @@
       <c r="E225" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="226" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>44569</v>
       </c>
@@ -11351,8 +12021,11 @@
       <c r="E226" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="227" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>44570</v>
       </c>
@@ -11365,8 +12038,11 @@
       <c r="E227" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="228" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>44570</v>
       </c>
@@ -11379,8 +12055,11 @@
       <c r="E228" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="229" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>44570</v>
       </c>
@@ -11394,7 +12073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>44570</v>
       </c>
@@ -11408,7 +12087,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="231" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>44570</v>
       </c>
@@ -11422,7 +12101,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="232" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>44570</v>
       </c>
@@ -11436,7 +12115,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>44570</v>
       </c>
@@ -11450,7 +12129,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="234" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>44570</v>
       </c>
@@ -11464,7 +12143,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="235" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>44570</v>
       </c>
@@ -11478,7 +12157,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>44570</v>
       </c>
@@ -11492,7 +12171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>44571</v>
       </c>
@@ -11506,7 +12185,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="238" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>44571</v>
       </c>
@@ -11520,7 +12199,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="239" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>44571</v>
       </c>
@@ -11534,7 +12213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>44571</v>
       </c>
@@ -12794,7 +13473,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="330" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>44574</v>
       </c>
@@ -17526,7 +18205,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="668" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B668" s="1">
         <v>44585</v>
       </c>
@@ -21923,20 +22602,1259 @@
       <c r="C1004">
         <v>99</v>
       </c>
+      <c r="D1004">
+        <v>5</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="1005" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1005">
         <v>100</v>
+      </c>
+      <c r="D1005">
+        <v>4</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1006">
+        <v>101</v>
+      </c>
+      <c r="D1006">
+        <v>2</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1007">
+        <v>102</v>
+      </c>
+      <c r="D1007">
+        <v>1</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1008">
+        <v>103</v>
+      </c>
+      <c r="D1008">
+        <v>1</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1009">
+        <v>104</v>
+      </c>
+      <c r="D1009">
+        <v>1</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1010">
+        <v>105</v>
+      </c>
+      <c r="D1010">
+        <v>1</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1011">
+        <v>106</v>
+      </c>
+      <c r="D1011">
+        <v>2</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1012">
+        <v>107</v>
+      </c>
+      <c r="D1012">
+        <v>1</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1013">
+        <v>108</v>
+      </c>
+      <c r="D1013">
+        <v>3</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1014">
+        <v>109</v>
+      </c>
+      <c r="D1014">
+        <v>1</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1015">
+        <v>110</v>
+      </c>
+      <c r="D1015">
+        <v>1</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1016">
+        <v>111</v>
+      </c>
+      <c r="D1016">
+        <v>1</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1017">
+        <v>112</v>
+      </c>
+      <c r="D1017">
+        <v>3</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1018">
+        <v>113</v>
+      </c>
+      <c r="D1018">
+        <v>4</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1019">
+        <v>114</v>
+      </c>
+      <c r="D1019">
+        <v>1</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1020">
+        <v>115</v>
+      </c>
+      <c r="D1020">
+        <v>1</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1021">
+        <v>116</v>
+      </c>
+      <c r="D1021">
+        <v>1</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1022">
+        <v>117</v>
+      </c>
+      <c r="D1022">
+        <v>2</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1023">
+        <v>118</v>
+      </c>
+      <c r="D1023">
+        <v>1</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1024">
+        <v>119</v>
+      </c>
+      <c r="D1024">
+        <v>1</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1025">
+        <v>120</v>
+      </c>
+      <c r="D1025">
+        <v>1</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1026">
+        <v>121</v>
+      </c>
+      <c r="D1026">
+        <v>17</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1027" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1027">
+        <v>122</v>
+      </c>
+      <c r="D1027">
+        <v>3</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1028">
+        <v>123</v>
+      </c>
+      <c r="D1028">
+        <v>47</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1029">
+        <v>124</v>
+      </c>
+      <c r="D1029">
+        <v>3</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1030">
+        <v>125</v>
+      </c>
+      <c r="D1030">
+        <v>37</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1031" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1031">
+        <v>126</v>
+      </c>
+      <c r="D1031">
+        <v>1</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1032">
+        <v>127</v>
+      </c>
+      <c r="D1032">
+        <v>1</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1033" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1033">
+        <v>128</v>
+      </c>
+      <c r="D1033">
+        <v>2</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1034" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1034">
+        <v>129</v>
+      </c>
+      <c r="D1034">
+        <v>7</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1035" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1035">
+        <v>130</v>
+      </c>
+      <c r="D1035">
+        <v>1</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1036" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1036">
+        <v>131</v>
+      </c>
+      <c r="D1036">
+        <v>3</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1037">
+        <v>132</v>
+      </c>
+      <c r="D1037">
+        <v>2</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1038">
+        <v>133</v>
+      </c>
+      <c r="D1038">
+        <v>1</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1039">
+        <v>134</v>
+      </c>
+      <c r="D1039">
+        <v>30</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1040">
+        <v>135</v>
+      </c>
+      <c r="D1040">
+        <v>1</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1041" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1041">
+        <v>136</v>
+      </c>
+      <c r="D1041">
+        <v>1</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1042" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1042">
+        <v>137</v>
+      </c>
+      <c r="D1042">
+        <v>2</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1043" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1043">
+        <v>138</v>
+      </c>
+      <c r="D1043">
+        <v>1</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1044" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1044">
+        <v>139</v>
+      </c>
+      <c r="D1044">
+        <v>1</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1045" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1045">
+        <v>140</v>
+      </c>
+      <c r="D1045">
+        <v>1</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1046" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1046">
+        <v>141</v>
+      </c>
+      <c r="D1046">
+        <v>1</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1047" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1047">
+        <v>142</v>
+      </c>
+      <c r="D1047">
+        <v>4</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1048">
+        <v>143</v>
+      </c>
+      <c r="D1048">
+        <v>1</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1049" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1049">
+        <v>144</v>
+      </c>
+      <c r="D1049">
+        <v>1</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1050" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1050">
+        <v>145</v>
+      </c>
+      <c r="D1050">
+        <v>1</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1051" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1051">
+        <v>146</v>
+      </c>
+      <c r="D1051">
+        <v>2</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1052">
+        <v>147</v>
+      </c>
+      <c r="D1052">
+        <v>4</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1053" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1053">
+        <v>148</v>
+      </c>
+      <c r="D1053">
+        <v>1</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1054" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1054">
+        <v>149</v>
+      </c>
+      <c r="D1054">
+        <v>2</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1055" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1055">
+        <v>150</v>
+      </c>
+      <c r="D1055">
+        <v>1</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1056" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1056">
+        <v>151</v>
+      </c>
+      <c r="D1056">
+        <v>1</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1057">
+        <v>152</v>
+      </c>
+      <c r="D1057">
+        <v>3</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1058" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1058">
+        <v>153</v>
+      </c>
+      <c r="D1058">
+        <v>1</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1059" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1059">
+        <v>154</v>
+      </c>
+      <c r="D1059">
+        <v>5</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1060">
+        <v>155</v>
+      </c>
+      <c r="D1060">
+        <v>1</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="1061" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1061">
+        <v>156</v>
+      </c>
+      <c r="D1061">
+        <v>1</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1062">
+        <v>157</v>
+      </c>
+      <c r="D1062">
+        <v>24</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1063">
+        <v>158</v>
+      </c>
+      <c r="D1063">
+        <v>1</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1064">
+        <v>159</v>
+      </c>
+      <c r="D1064">
+        <v>1</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1065" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1065">
+        <v>160</v>
+      </c>
+      <c r="D1065">
+        <v>2</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1066">
+        <v>161</v>
+      </c>
+      <c r="D1066">
+        <v>1</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1067">
+        <v>162</v>
+      </c>
+      <c r="D1067">
+        <v>2</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1068" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1068">
+        <v>163</v>
+      </c>
+      <c r="D1068">
+        <v>5</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1069">
+        <v>164</v>
+      </c>
+      <c r="D1069">
+        <v>5</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1070">
+        <v>165</v>
+      </c>
+      <c r="D1070">
+        <v>1</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1071" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1071">
+        <v>166</v>
+      </c>
+      <c r="D1071">
+        <v>2</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1072" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1072">
+        <v>167</v>
+      </c>
+      <c r="D1072">
+        <v>1</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1073" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1073">
+        <v>168</v>
+      </c>
+      <c r="D1073">
+        <v>1</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1074">
+        <v>169</v>
+      </c>
+      <c r="D1074">
+        <v>1</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1075" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1075">
+        <v>170</v>
+      </c>
+      <c r="D1075">
+        <v>1</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="1076" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1076">
+        <v>171</v>
+      </c>
+      <c r="D1076">
+        <v>1</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1077">
+        <v>172</v>
+      </c>
+      <c r="D1077">
+        <v>3</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1078">
+        <v>173</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1079">
+        <v>174</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1080">
+        <v>175</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1081">
+        <v>176</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1082">
+        <v>177</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1083">
+        <v>178</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1084">
+        <v>179</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1085">
+        <v>180</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1086">
+        <v>181</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1087">
+        <v>182</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1088">
+        <v>183</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1089">
+        <v>184</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1090">
+        <v>185</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1091" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1091">
+        <v>186</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1092">
+        <v>187</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1093" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1093">
+        <v>188</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1094">
+        <v>189</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1095">
+        <v>190</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1096">
+        <v>191</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1097">
+        <v>192</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1098" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1098">
+        <v>193</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1099" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1099">
+        <v>194</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1100">
+        <v>195</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1101">
+        <v>196</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1102">
+        <v>197</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="1103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1103">
+        <v>198</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1104">
+        <v>199</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1105">
+        <v>200</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1106">
+        <v>201</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="1107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1107">
+        <v>202</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1108">
+        <v>203</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1109">
+        <v>204</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1110">
+        <v>205</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1111">
+        <v>206</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="1112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1112">
+        <v>207</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1113">
+        <v>208</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1114">
+        <v>209</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1115">
+        <v>210</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1116">
+        <v>211</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1117">
+        <v>212</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1118">
+        <v>213</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1119">
+        <v>214</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="1120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1120">
+        <v>215</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="1121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1121">
+        <v>216</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1122">
+        <v>217</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1123">
+        <v>218</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1124">
+        <v>219</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1125">
+        <v>220</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1126">
+        <v>221</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1127">
+        <v>222</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1128">
+        <v>223</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1129">
+        <v>224</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1130">
+        <v>225</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1131">
+        <v>226</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:E903" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
     <filterColumn colId="2">
       <filters>
-        <filter val="hierro"/>
+        <filter val="pedro infante"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E906:E1131">
+    <sortCondition ref="E906:E1131"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CoordenadasAccidentes.xlsx
+++ b/CoordenadasAccidentes.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\EstudiosProfesionales\FIME\Doctorado\TesisDoctoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31BB208-9330-4158-B4FE-277416B2F7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA36356-79AA-40D0-82AE-01C471542AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{81BBF99F-1DB1-49E1-9BE7-28ADF641FF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo1 (00-08) Mensual" sheetId="1" r:id="rId1"/>
-    <sheet name="Periodo2 (08-16) Mensual" sheetId="2" r:id="rId2"/>
-    <sheet name="Periodo3 (16-24) Mensual" sheetId="3" r:id="rId3"/>
-    <sheet name="Todas las coordenadas" sheetId="4" r:id="rId4"/>
+    <sheet name="Periodo1 (00-08) Diario" sheetId="5" r:id="rId2"/>
+    <sheet name="Periodo2 (08-16) Mensual" sheetId="2" r:id="rId3"/>
+    <sheet name="Periodo3 (16-24) Mensual" sheetId="3" r:id="rId4"/>
+    <sheet name="Todas las coordenadas" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Periodo1 (00-08) Mensual'!$B$2:$E$271</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Periodo2 (08-16) Mensual'!$B$2:$E$903</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Periodo3 (16-24) Mensual'!$B$2:$E$656</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Todas las coordenadas'!$B$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Periodo2 (08-16) Mensual'!$B$2:$E$903</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Periodo3 (16-24) Mensual'!$B$2:$E$656</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Todas las coordenadas'!$B$2:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5529" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5630" uniqueCount="1028">
   <si>
     <t>25.6727925, -100.352228</t>
   </si>
@@ -3482,10 +3483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B416306-B906-45CD-81F6-4F4CCAAB3EE1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,7 +3525,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44562</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>44562</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44562</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44562</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>2.6022304832713755E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44562</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44562</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44562</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>1.1152416356877323E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44562</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44562</v>
       </c>
@@ -3766,7 +3768,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44562</v>
       </c>
@@ -3793,7 +3795,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44562</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44564</v>
       </c>
@@ -3982,7 +3984,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44564</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44564</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>1.858736059479554E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44564</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44565</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44565</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44565</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>3.717472118959108E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44565</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>4.4609665427509292E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44566</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44566</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44566</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44566</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44566</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44566</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44566</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44566</v>
       </c>
@@ -4387,7 +4389,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44566</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44567</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44567</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>3.717472118959108E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44567</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>1.858736059479554E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44568</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44568</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44568</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44568</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44568</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>4.0892193308550186E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44569</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44569</v>
       </c>
@@ -4684,7 +4686,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44569</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44569</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>4.8327137546468404E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44569</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44569</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44570</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44570</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44570</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44570</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44570</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44570</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44570</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44570</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44571</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44571</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44571</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>44571</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44571</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>1.1152416356877323E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44571</v>
       </c>
@@ -5170,7 +5172,7 @@
         <v>7.8066914498141265E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44571</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>44571</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>5.204460966542751E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44572</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44572</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>2.2304832713754646E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44572</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44572</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>44572</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44572</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44573</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>5.5762081784386616E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44573</v>
       </c>
@@ -5440,7 +5442,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>44573</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44573</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>1.1152416356877323E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44573</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>44573</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44573</v>
       </c>
@@ -5575,7 +5577,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44573</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44573</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44574</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44574</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44574</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44574</v>
       </c>
@@ -5737,7 +5739,7 @@
         <v>1.1152416356877323E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>44574</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44574</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>3.3457249070631967E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44574</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44574</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44574</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>44575</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44575</v>
       </c>
@@ -5926,7 +5928,7 @@
         <v>1.4869888475836431E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44575</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>2.6022304832713755E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44575</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44575</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44575</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44575</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44575</v>
       </c>
@@ -6088,7 +6090,7 @@
         <v>7.4349442379182153E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44576</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>1.1152416356877323E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44576</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44576</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>1.1152416356877323E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>44576</v>
       </c>
@@ -6196,7 +6198,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44576</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44576</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>3.7174721189591076E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44576</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44576</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44576</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44576</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>44576</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44576</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44576</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44576</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44576</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>44576</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>44576</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>44576</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>44576</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>44576</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>44576</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>44576</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>44576</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>44576</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>44576</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>44576</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>44576</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>44576</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>44576</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>44576</v>
       </c>
@@ -6586,7 +6588,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>44576</v>
       </c>
@@ -6600,7 +6602,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>44576</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>44576</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>44576</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>44576</v>
       </c>
@@ -6656,7 +6658,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>44577</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>44577</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>44577</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>44577</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>44577</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>44578</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>44578</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>44578</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>44578</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>44579</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>44579</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>44579</v>
       </c>
@@ -6824,7 +6826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>44579</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>44579</v>
       </c>
@@ -6852,7 +6854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>44579</v>
       </c>
@@ -6866,7 +6868,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>44579</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>44579</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>44579</v>
       </c>
@@ -6908,7 +6910,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>44579</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>44580</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>44580</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>44580</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>44580</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>44580</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>44580</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>44581</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>44581</v>
       </c>
@@ -7034,7 +7036,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>44581</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>44581</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>44581</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>44582</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>44582</v>
       </c>
@@ -7104,7 +7106,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>44582</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>44582</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>44582</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>44582</v>
       </c>
@@ -7160,7 +7162,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>44582</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>44582</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>44582</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>44582</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>44582</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>44582</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>44582</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>44583</v>
       </c>
@@ -7272,7 +7274,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>44583</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>44583</v>
       </c>
@@ -7300,7 +7302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>44583</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>44583</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>44583</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>44583</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>44584</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>44584</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>44584</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>44584</v>
       </c>
@@ -7412,7 +7414,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>44584</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>44584</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>44584</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>44584</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>44584</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>44584</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>44584</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>44584</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>44585</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>44585</v>
       </c>
@@ -7552,7 +7554,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>44585</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>44585</v>
       </c>
@@ -7580,7 +7582,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>44585</v>
       </c>
@@ -7594,7 +7596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>44585</v>
       </c>
@@ -7608,7 +7610,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>44585</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>44585</v>
       </c>
@@ -7636,7 +7638,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>44586</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>44586</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>44586</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>44586</v>
       </c>
@@ -7692,7 +7694,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>44586</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>44586</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>44586</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>44587</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>44587</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>44587</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>44587</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>44587</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>44587</v>
       </c>
@@ -7818,7 +7820,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>44587</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>44587</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>44587</v>
       </c>
@@ -7860,7 +7862,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>44587</v>
       </c>
@@ -7874,7 +7876,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>44587</v>
       </c>
@@ -7888,7 +7890,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>44588</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>44588</v>
       </c>
@@ -7916,7 +7918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>44588</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>44588</v>
       </c>
@@ -7944,7 +7946,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>44588</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>44588</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>44588</v>
       </c>
@@ -7986,7 +7988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>44588</v>
       </c>
@@ -8000,7 +8002,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>44588</v>
       </c>
@@ -8014,7 +8016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>44588</v>
       </c>
@@ -8028,7 +8030,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>44588</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>44589</v>
       </c>
@@ -8056,7 +8058,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>44589</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>44589</v>
       </c>
@@ -8084,7 +8086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>44589</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>44589</v>
       </c>
@@ -8112,7 +8114,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>44589</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>44589</v>
       </c>
@@ -8140,7 +8142,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>44589</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>44589</v>
       </c>
@@ -8168,7 +8170,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>44589</v>
       </c>
@@ -8182,7 +8184,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>44589</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>44589</v>
       </c>
@@ -8210,7 +8212,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>44589</v>
       </c>
@@ -8224,7 +8226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>44589</v>
       </c>
@@ -8238,7 +8240,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>44589</v>
       </c>
@@ -8252,7 +8254,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>44589</v>
       </c>
@@ -8266,7 +8268,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>44589</v>
       </c>
@@ -8280,7 +8282,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>44589</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>44590</v>
       </c>
@@ -8308,7 +8310,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>44590</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>44590</v>
       </c>
@@ -8336,7 +8338,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>44590</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>44590</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>44590</v>
       </c>
@@ -8378,7 +8380,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>44591</v>
       </c>
@@ -8392,7 +8394,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>44591</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>44591</v>
       </c>
@@ -8420,7 +8422,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>44591</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>44591</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>44591</v>
       </c>
@@ -8462,7 +8464,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>44591</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>44591</v>
       </c>
@@ -8490,7 +8492,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>44591</v>
       </c>
@@ -8504,7 +8506,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>44591</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>44592</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>44592</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>44592</v>
       </c>
@@ -8560,7 +8562,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>44592</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>44592</v>
       </c>
@@ -8588,7 +8590,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>44592</v>
       </c>
@@ -8603,12 +8605,1403 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E271" xr:uid="{9B416306-B906-45CD-81F6-4F4CCAAB3EE1}"/>
+  <autoFilter ref="B2:E271" xr:uid="{9B416306-B906-45CD-81F6-4F4CCAAB3EE1}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="1" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE43B9-5C43-462D-BDBB-F89383BAFDFC}">
+  <dimension ref="B2:AG272"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>44562</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44563</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44564</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44565</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44566</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44567</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44568</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44569</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44570</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44571</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44572</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44573</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44574</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44575</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44576</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44577</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44578</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44579</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44580</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44581</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44582</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44583</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44584</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44585</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44586</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44587</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44588</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44589</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44590</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>980</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>805</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>692</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>982</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>676</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>446</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>885</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>865</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>857</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>853</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>659</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>905</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>573</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>592</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>929</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>522</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>620</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>653</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>699</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>942</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>939</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>655</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>901</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>597</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>548</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>992</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>427</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>723</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>855</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>493</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>444</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>903</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>646</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>650</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>817</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA21DF2-85A5-4128-937E-C8E5EE619425}">
   <dimension ref="B2:I903"/>
   <sheetViews>
@@ -24214,7 +25607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFBEADB-34D0-48A6-B493-BE79E7E628C8}">
   <dimension ref="B2:I656"/>
   <sheetViews>
@@ -36253,12 +37646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306DD0B8-17F4-4818-B672-9970267E1545}">
   <dimension ref="B2:C653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B3" sqref="B3:B653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
